--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22297,6 +22297,502 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="C492" t="n">
+        <v>396.3257142857143</v>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="n">
+        <v>392.7457142857143</v>
+      </c>
+      <c r="F492" t="n">
+        <v>401.2833333333333</v>
+      </c>
+      <c r="G492" t="n">
+        <v>381.91</v>
+      </c>
+      <c r="H492" t="n">
+        <v>382.4857142857143</v>
+      </c>
+      <c r="I492" t="n">
+        <v>381.9057142857143</v>
+      </c>
+      <c r="J492" t="n">
+        <v>369.9857142857143</v>
+      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="n">
+        <v>361.61</v>
+      </c>
+      <c r="M492" t="n">
+        <v>352.7657142857143</v>
+      </c>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>416.75</v>
+      </c>
+      <c r="C493" t="n">
+        <v>412.0314285714285</v>
+      </c>
+      <c r="D493" t="n">
+        <v>416.69</v>
+      </c>
+      <c r="E493" t="n">
+        <v>420.2814285714285</v>
+      </c>
+      <c r="F493" t="n">
+        <v>418.1</v>
+      </c>
+      <c r="G493" t="n">
+        <v>412.83</v>
+      </c>
+      <c r="H493" t="n">
+        <v>408.7414285714286</v>
+      </c>
+      <c r="I493" t="n">
+        <v>404.8414285714285</v>
+      </c>
+      <c r="J493" t="n">
+        <v>406.1314285714286</v>
+      </c>
+      <c r="K493" t="n">
+        <v>402.99</v>
+      </c>
+      <c r="L493" t="n">
+        <v>387.93</v>
+      </c>
+      <c r="M493" t="n">
+        <v>380.8414285714285</v>
+      </c>
+      <c r="N493" t="n">
+        <v>380.37</v>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>423.6166666666667</v>
+      </c>
+      <c r="C494" t="n">
+        <v>414.3957142857143</v>
+      </c>
+      <c r="D494" t="n">
+        <v>411.4266666666667</v>
+      </c>
+      <c r="E494" t="n">
+        <v>413.8457142857143</v>
+      </c>
+      <c r="F494" t="n">
+        <v>405.2944444444445</v>
+      </c>
+      <c r="G494" t="n">
+        <v>399.81</v>
+      </c>
+      <c r="H494" t="n">
+        <v>411.4957142857143</v>
+      </c>
+      <c r="I494" t="n">
+        <v>406.8257142857143</v>
+      </c>
+      <c r="J494" t="n">
+        <v>395.9057142857143</v>
+      </c>
+      <c r="K494" t="n">
+        <v>396.9466666666667</v>
+      </c>
+      <c r="L494" t="n">
+        <v>389.6866666666667</v>
+      </c>
+      <c r="M494" t="n">
+        <v>376.2957142857143</v>
+      </c>
+      <c r="N494" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>459.6433333333333</v>
+      </c>
+      <c r="C495" t="n">
+        <v>439.7985714285714</v>
+      </c>
+      <c r="D495" t="n">
+        <v>425.6433333333333</v>
+      </c>
+      <c r="E495" t="n">
+        <v>410.0085714285714</v>
+      </c>
+      <c r="F495" t="n">
+        <v>427.1588888888889</v>
+      </c>
+      <c r="G495" t="n">
+        <v>436.84</v>
+      </c>
+      <c r="H495" t="n">
+        <v>430.1185714285714</v>
+      </c>
+      <c r="I495" t="n">
+        <v>422.3685714285714</v>
+      </c>
+      <c r="J495" t="n">
+        <v>416.4385714285714</v>
+      </c>
+      <c r="K495" t="n">
+        <v>415.3133333333333</v>
+      </c>
+      <c r="L495" t="n">
+        <v>415.6733333333333</v>
+      </c>
+      <c r="M495" t="n">
+        <v>392.0985714285715</v>
+      </c>
+      <c r="N495" t="n">
+        <v>370.88</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>438.2266666666667</v>
+      </c>
+      <c r="C496" t="n">
+        <v>432.6685714285715</v>
+      </c>
+      <c r="D496" t="n">
+        <v>429.5666666666667</v>
+      </c>
+      <c r="E496" t="n">
+        <v>421.7785714285715</v>
+      </c>
+      <c r="F496" t="n">
+        <v>414.2511111111111</v>
+      </c>
+      <c r="G496" t="n">
+        <v>410.84</v>
+      </c>
+      <c r="H496" t="n">
+        <v>421.3285714285714</v>
+      </c>
+      <c r="I496" t="n">
+        <v>417.3685714285714</v>
+      </c>
+      <c r="J496" t="n">
+        <v>413.6785714285714</v>
+      </c>
+      <c r="K496" t="n">
+        <v>416.1066666666667</v>
+      </c>
+      <c r="L496" t="n">
+        <v>408.0066666666667</v>
+      </c>
+      <c r="M496" t="n">
+        <v>397.8685714285714</v>
+      </c>
+      <c r="N496" t="n">
+        <v>409.67</v>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>438.84</v>
+      </c>
+      <c r="C497" t="n">
+        <v>425.9814285714286</v>
+      </c>
+      <c r="D497" t="n">
+        <v>413.65</v>
+      </c>
+      <c r="E497" t="n">
+        <v>409.8714285714286</v>
+      </c>
+      <c r="F497" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="G497" t="n">
+        <v>407.31</v>
+      </c>
+      <c r="H497" t="n">
+        <v>419.4014285714285</v>
+      </c>
+      <c r="I497" t="n">
+        <v>413.4814285714286</v>
+      </c>
+      <c r="J497" t="n">
+        <v>407.1714285714286</v>
+      </c>
+      <c r="K497" t="n">
+        <v>407.91</v>
+      </c>
+      <c r="L497" t="n">
+        <v>403.46</v>
+      </c>
+      <c r="M497" t="n">
+        <v>390.0014285714286</v>
+      </c>
+      <c r="N497" t="n">
+        <v>397.34</v>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>442.2133333333333</v>
+      </c>
+      <c r="C498" t="n">
+        <v>430.29</v>
+      </c>
+      <c r="D498" t="n">
+        <v>425.9433333333333</v>
+      </c>
+      <c r="E498" t="n">
+        <v>417.03</v>
+      </c>
+      <c r="F498" t="n">
+        <v>420.1455555555555</v>
+      </c>
+      <c r="G498" t="n">
+        <v>440.22</v>
+      </c>
+      <c r="H498" t="n">
+        <v>425.94</v>
+      </c>
+      <c r="I498" t="n">
+        <v>414.84</v>
+      </c>
+      <c r="J498" t="n">
+        <v>433.56</v>
+      </c>
+      <c r="K498" t="n">
+        <v>447.6733333333333</v>
+      </c>
+      <c r="L498" t="n">
+        <v>451.0633333333333</v>
+      </c>
+      <c r="M498" t="n">
+        <v>445.03</v>
+      </c>
+      <c r="N498" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="n">
+        <v>421.5355555555556</v>
+      </c>
+      <c r="G499" t="n">
+        <v>435.06</v>
+      </c>
+      <c r="H499" t="n">
+        <v>425.03</v>
+      </c>
+      <c r="I499" t="n">
+        <v>415.69</v>
+      </c>
+      <c r="J499" t="n">
+        <v>442.5</v>
+      </c>
+      <c r="K499" t="n">
+        <v>445.5433333333333</v>
+      </c>
+      <c r="L499" t="n">
+        <v>447.8133333333333</v>
+      </c>
+      <c r="M499" t="n">
+        <v>430.47</v>
+      </c>
+      <c r="N499" t="n">
+        <v>391.2600000000001</v>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>463.8333333333333</v>
+      </c>
+      <c r="C500" t="n">
+        <v>454.5628571428572</v>
+      </c>
+      <c r="D500" t="n">
+        <v>436.5833333333333</v>
+      </c>
+      <c r="E500" t="n">
+        <v>419.4528571428572</v>
+      </c>
+      <c r="F500" t="n">
+        <v>424.0255555555556</v>
+      </c>
+      <c r="G500" t="n">
+        <v>415.9</v>
+      </c>
+      <c r="H500" t="n">
+        <v>412.8328571428572</v>
+      </c>
+      <c r="I500" t="n">
+        <v>418.2128571428572</v>
+      </c>
+      <c r="J500" t="n">
+        <v>421.0928571428572</v>
+      </c>
+      <c r="K500" t="n">
+        <v>417.9633333333333</v>
+      </c>
+      <c r="L500" t="n">
+        <v>413.0733333333333</v>
+      </c>
+      <c r="M500" t="n">
+        <v>409.1128571428572</v>
+      </c>
+      <c r="N500" t="n">
+        <v>402.59</v>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:12:21+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>467.06</v>
+      </c>
+      <c r="C501" t="n">
+        <v>458.6042857142857</v>
+      </c>
+      <c r="D501" t="n">
+        <v>440.92</v>
+      </c>
+      <c r="E501" t="n">
+        <v>436.7642857142857</v>
+      </c>
+      <c r="F501" t="n">
+        <v>442.23</v>
+      </c>
+      <c r="G501" t="n">
+        <v>438.15</v>
+      </c>
+      <c r="H501" t="n">
+        <v>426.5642857142857</v>
+      </c>
+      <c r="I501" t="n">
+        <v>422.6842857142857</v>
+      </c>
+      <c r="J501" t="n">
+        <v>426.4142857142857</v>
+      </c>
+      <c r="K501" t="n">
+        <v>432.49</v>
+      </c>
+      <c r="L501" t="n">
+        <v>440.98</v>
+      </c>
+      <c r="M501" t="n">
+        <v>436.5742857142857</v>
+      </c>
+      <c r="N501" t="n">
+        <v>428.27</v>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22308,7 +22804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27476,6 +27972,106 @@
       </c>
       <c r="B516" t="n">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -27644,28 +28240,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.037243269056391</v>
+        <v>2.076908708142421</v>
       </c>
       <c r="J2" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4217199004346796</v>
+        <v>0.4340472874706849</v>
       </c>
       <c r="M2" t="n">
-        <v>13.85469329464481</v>
+        <v>13.99369357161114</v>
       </c>
       <c r="N2" t="n">
-        <v>326.5320639013529</v>
+        <v>330.4762637288798</v>
       </c>
       <c r="O2" t="n">
-        <v>18.07019822529219</v>
+        <v>18.17900612599269</v>
       </c>
       <c r="P2" t="n">
-        <v>378.975387976634</v>
+        <v>378.6036618173904</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -27721,28 +28317,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.087921489025306</v>
+        <v>2.111110675676195</v>
       </c>
       <c r="J3" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4564851582294287</v>
+        <v>0.4662017821692552</v>
       </c>
       <c r="M3" t="n">
-        <v>13.48396595139196</v>
+        <v>13.54336990898672</v>
       </c>
       <c r="N3" t="n">
-        <v>292.3993156842908</v>
+        <v>294.5521673677845</v>
       </c>
       <c r="O3" t="n">
-        <v>17.09968759025412</v>
+        <v>17.16252217384684</v>
       </c>
       <c r="P3" t="n">
-        <v>371.3444951250418</v>
+        <v>371.1240182459621</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -27798,28 +28394,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>1.988731676480175</v>
+        <v>2.021238217871668</v>
       </c>
       <c r="J4" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3948428191724968</v>
+        <v>0.4106516053649485</v>
       </c>
       <c r="M4" t="n">
-        <v>13.96338377050328</v>
+        <v>13.86351624366217</v>
       </c>
       <c r="N4" t="n">
-        <v>340.138011888726</v>
+        <v>336.0785294379379</v>
       </c>
       <c r="O4" t="n">
-        <v>18.44283090766507</v>
+        <v>18.33244472071136</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5230452660373</v>
+        <v>366.2136991623984</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -27875,28 +28471,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>1.992626530357731</v>
+        <v>1.999989193492561</v>
       </c>
       <c r="J5" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4293394997338841</v>
+        <v>0.4401968632381412</v>
       </c>
       <c r="M5" t="n">
-        <v>13.13735591123666</v>
+        <v>13.02311341988245</v>
       </c>
       <c r="N5" t="n">
-        <v>291.4947914266793</v>
+        <v>287.5579794005195</v>
       </c>
       <c r="O5" t="n">
-        <v>17.07321854328232</v>
+        <v>16.95753459086902</v>
       </c>
       <c r="P5" t="n">
-        <v>363.5151234464254</v>
+        <v>363.443634981137</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -27952,28 +28548,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.129893486100836</v>
+        <v>2.174446310624158</v>
       </c>
       <c r="J6" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="L6" t="n">
-        <v>0.425647143137348</v>
+        <v>0.4441713597391407</v>
       </c>
       <c r="M6" t="n">
-        <v>14.43018963846498</v>
+        <v>14.38634469324491</v>
       </c>
       <c r="N6" t="n">
-        <v>332.1049104664678</v>
+        <v>329.1286681851446</v>
       </c>
       <c r="O6" t="n">
-        <v>18.22374578582756</v>
+        <v>18.14190365383811</v>
       </c>
       <c r="P6" t="n">
-        <v>354.4720207661606</v>
+        <v>354.0398998675019</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -28029,28 +28625,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.084342407635403</v>
+        <v>2.158315312815759</v>
       </c>
       <c r="J7" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3709646340113283</v>
+        <v>0.3911733983965882</v>
       </c>
       <c r="M7" t="n">
-        <v>15.87113652713702</v>
+        <v>15.98505567715491</v>
       </c>
       <c r="N7" t="n">
-        <v>401.3032950410183</v>
+        <v>405.3171329006121</v>
       </c>
       <c r="O7" t="n">
-        <v>20.03255587889419</v>
+        <v>20.13248948591833</v>
       </c>
       <c r="P7" t="n">
-        <v>349.4138398784866</v>
+        <v>348.7003675086966</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -28106,28 +28702,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.105686876924171</v>
+        <v>2.179217180616797</v>
       </c>
       <c r="J8" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3771935106732847</v>
+        <v>0.4000912887179048</v>
       </c>
       <c r="M8" t="n">
-        <v>15.39285383239639</v>
+        <v>15.461986088715</v>
       </c>
       <c r="N8" t="n">
-        <v>391.727888358377</v>
+        <v>391.6840123614568</v>
       </c>
       <c r="O8" t="n">
-        <v>19.7921168235835</v>
+        <v>19.79100837151702</v>
       </c>
       <c r="P8" t="n">
-        <v>347.5702098606037</v>
+        <v>346.8606120525531</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -28183,28 +28779,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>1.929742473326572</v>
+        <v>1.997609475274372</v>
       </c>
       <c r="J9" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3621778377832603</v>
+        <v>0.3854455970764256</v>
       </c>
       <c r="M9" t="n">
-        <v>15.06098791485764</v>
+        <v>15.06923149597394</v>
       </c>
       <c r="N9" t="n">
-        <v>359.625876531603</v>
+        <v>358.6581981993436</v>
       </c>
       <c r="O9" t="n">
-        <v>18.96380437917463</v>
+        <v>18.93827336900974</v>
       </c>
       <c r="P9" t="n">
-        <v>348.3956664890607</v>
+        <v>347.7544679939916</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -28260,28 +28856,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>1.974043422253213</v>
+        <v>2.05353454408847</v>
       </c>
       <c r="J10" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3565425493141509</v>
+        <v>0.3774439124274757</v>
       </c>
       <c r="M10" t="n">
-        <v>15.58352589699499</v>
+        <v>15.71222546238242</v>
       </c>
       <c r="N10" t="n">
-        <v>392.296883593915</v>
+        <v>398.5319092473603</v>
       </c>
       <c r="O10" t="n">
-        <v>19.80648589714781</v>
+        <v>19.96326399282843</v>
       </c>
       <c r="P10" t="n">
-        <v>346.2060160424888</v>
+        <v>345.4598813347992</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -28337,28 +28933,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>1.912990627110119</v>
+        <v>2.017851957497822</v>
       </c>
       <c r="J11" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3540730132195107</v>
+        <v>0.3780151888497238</v>
       </c>
       <c r="M11" t="n">
-        <v>15.11429917516161</v>
+        <v>15.26038016571168</v>
       </c>
       <c r="N11" t="n">
-        <v>367.1659278800836</v>
+        <v>377.6419195184425</v>
       </c>
       <c r="O11" t="n">
-        <v>19.16157425370065</v>
+        <v>19.43301107699068</v>
       </c>
       <c r="P11" t="n">
-        <v>347.9660187510781</v>
+        <v>346.9658953953166</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -28414,28 +29010,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>1.900205812663866</v>
+        <v>1.976513230431014</v>
       </c>
       <c r="J12" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3364893670331189</v>
+        <v>0.351881936314262</v>
       </c>
       <c r="M12" t="n">
-        <v>15.57709416608759</v>
+        <v>15.80973419971927</v>
       </c>
       <c r="N12" t="n">
-        <v>392.9428065696692</v>
+        <v>407.9041129450308</v>
       </c>
       <c r="O12" t="n">
-        <v>19.82278503565201</v>
+        <v>20.19663617895393</v>
       </c>
       <c r="P12" t="n">
-        <v>348.2858774897335</v>
+        <v>347.5552301520863</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -28491,28 +29087,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.827855472025615</v>
+        <v>1.868186104716283</v>
       </c>
       <c r="J13" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3025064393833855</v>
+        <v>0.3125327870485656</v>
       </c>
       <c r="M13" t="n">
-        <v>16.14953764315106</v>
+        <v>16.32200860043179</v>
       </c>
       <c r="N13" t="n">
-        <v>438.8354710910171</v>
+        <v>449.5177959785007</v>
       </c>
       <c r="O13" t="n">
-        <v>20.94840020361978</v>
+        <v>21.20183473142126</v>
       </c>
       <c r="P13" t="n">
-        <v>346.7667055888163</v>
+        <v>346.3883409345262</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -28568,28 +29164,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.580080777188752</v>
+        <v>1.616682130213176</v>
       </c>
       <c r="J14" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2095771850069138</v>
+        <v>0.2239903461099696</v>
       </c>
       <c r="M14" t="n">
-        <v>18.45118493888939</v>
+        <v>18.3026667408467</v>
       </c>
       <c r="N14" t="n">
-        <v>535.0850538006018</v>
+        <v>528.8173460130607</v>
       </c>
       <c r="O14" t="n">
-        <v>23.13190553760329</v>
+        <v>22.9960289183385</v>
       </c>
       <c r="P14" t="n">
-        <v>347.3167866445942</v>
+        <v>346.9725295158955</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -28626,7 +29222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O491"/>
+  <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60029,6 +60625,748 @@
         </is>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-36.89990060015658,174.44617971581184</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-36.89921913164633,174.445877231524</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-36.89790829372948,174.44513949377483</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-36.89729373791737,174.44466650217046</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-36.896568719877145,174.44447490602766</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-36.895922644238894,174.444082185137</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-36.89527198942057,174.4437011158987</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-36.89457626973977,174.44343426017986</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-36.89324329915918,174.44275331919258</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-36.89255758824176,174.4424600146612</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr"/>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-36.89994828864771,174.4460582249653</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-36.89928128755232,174.44571888414538</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-36.898651391236896,174.44528500145165</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-36.89801726599701,174.44486187835315</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-36.89736028926271,174.44449695744765</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-36.89669108428483,174.4441631748387</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-36.89602654941902,174.4438174805286</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-36.8953627554653,174.44346988450005</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-36.89471865857693,174.44306945523738</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-36.89405551293406,174.44271725507224</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-36.8933462051946,174.44248721851733</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-36.89267107548782,174.44217844058642</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-36.89203460864762,174.44177789007037</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-36.89997546377786,174.44598899359778</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-36.89929064427673,174.44569504703773</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-36.89863056157353,174.4453380668572</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-36.89799179678968,174.44492676337865</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-36.89730961176485,174.44462606239273</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-36.896639558360626,174.44429444081257</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-36.89603744928154,174.44378971235483</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-36.89537060807848,174.44344987946516</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-36.8946783765246,174.4431726596217</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>-36.894031850374155,174.44277833443536</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-36.89335307339583,174.4424694582259</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>-36.892652700911505,174.4422240300557</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>-36.89203631998491,174.44177381262662</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-36.90011804022263,174.44562576334872</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-36.8993911764734,174.44543893098407</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-36.89868682403726,174.44519473306266</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-36.897976611359006,174.44496544952383</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-36.89739613938731,174.44440562609572</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-36.89678610214987,174.44392110861855</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-36.896111147563346,174.44360196011345</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-36.89543211727438,174.44329318041508</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-36.89475926131133,174.4429654289122</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-36.89410376462274,174.44259270426042</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-36.893454675553514,174.44220672685563</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-36.892716578764784,174.44206554136463</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-36.89199499741239,174.44187226792377</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:12:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-36.900033283353245,174.4458416919339</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-36.899362959443515,174.4455108169618</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-36.898702350600665,174.44515517760252</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-36.89802319090421,174.44484678411672</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-36.89734505744609,174.44453576176358</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-36.89668320897993,174.44418323777575</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-36.89607636196522,174.44369057933255</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-36.89541233033081,174.4433435891449</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-36.89474838890386,174.44299328462114</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-36.89410687089425,174.4425846861069</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-36.89342470063017,174.44228423875003</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-36.89273990204089,174.44200767329679</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-36.89215690630966,174.44148650155023</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-36.90003571063701,174.4458355081493</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-36.899336494985576,174.4455782379228</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-36.89863936042719,174.4453156510118</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-36.897976068618156,174.44496683220035</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-36.8973179444301,174.4446048343031</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-36.896669239209835,174.44421882679435</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-36.89606873547003,174.44371000843364</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-36.89539694738111,174.44338277831332</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-36.894722755433435,174.44305895889255</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-36.89407477708041,174.4426675290979</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-36.893406924174016,174.44233020664421</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-36.8927081017663,174.4420865738696</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-36.892105441201,174.4416091235242</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-36.90004906069214,174.4458014973268</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-36.899353546219324,174.4455347981465</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-36.89868801128555,174.44519170843162</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-36.898004398539435,174.44489465933938</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-36.897368384458126,174.44447633424676</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-36.896799478220466,174.44388703177532</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-36.896094611268055,174.44364408773882</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-36.89540232378283,174.44336908154955</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-36.89482670723686,174.44279262817733</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-36.894230468747175,174.44226564391386</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-36.8935930417656,174.44184892440802</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-36.892930535154726,174.4415346839518</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>-36.89207609810325,174.44167903686974</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-36.89737388531952,174.44446232032556</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-36.89677905794317,174.44393905440683</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-36.89609101002847,174.443653262197</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-36.89540568756651,174.44336051206966</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-36.89486192421079,174.44270239968515</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-36.89422212885503,174.44228717171472</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-36.89358033510735,174.44188178283986</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>-36.89287168178728,174.4416807087257</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>-36.89208006338909,174.44166958912353</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-36.9001346221832,174.44558351858637</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-36.89944960611265,174.44529007455495</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-36.89873011897638,174.44508443478887</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-36.898013986944505,174.44487023203263</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-36.897383739376494,174.44443721624572</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-36.896703233618055,174.44413222346532</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-36.89604274091376,174.44377623153727</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-36.895415671499045,174.44333507727268</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-36.894777595822525,174.4429184548258</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-36.89411414061162,174.44256592092992</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-36.893444510150275,174.44223301350502</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>-36.892785353188906,174.44189490281428</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>-36.89212735458352,174.4415569122419</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:12:21+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-36.90014739173393,174.4455509864098</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-36.899465600028584,174.4452493280377</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-36.898747281263084,174.44504071200706</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-36.89808249640834,174.444695697592</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-36.89745578244521,174.44425367956876</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-36.896791286367716,174.44390790132275</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-36.896097081819754,174.44363779380078</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-36.89543336667783,174.44328999746298</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-36.89479855837064,174.44286474747048</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>-36.894171019198026,174.44241910098162</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>-36.89355361851491,174.44195086976282</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>-36.892896356106014,174.4416194878098</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>-36.89223454200637,174.44130152404577</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -28085,7 +28085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28176,35 +28176,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28263,27 +28268,28 @@
       <c r="P2" t="n">
         <v>378.6036618173904</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.4502599037628 -36.898298908730716, 174.44098506174555 -36.90193948196141)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4502599037628</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.89829890873072</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4409850617456</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.90193948196141</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4456224827542</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.90011919534606</v>
       </c>
     </row>
@@ -28340,27 +28346,28 @@
       <c r="P3" t="n">
         <v>371.1240182459621</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.44987296027244 -36.89765059072064, 174.44059815582418 -36.90129115422719)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4498729602724</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.89765059072064</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4405981558242</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.90129115422719</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4452355580483</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.89947087247391</v>
       </c>
     </row>
@@ -28417,27 +28424,28 @@
       <c r="P4" t="n">
         <v>366.2136991623984</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.44948601678226 -36.897002267202616, 174.4402112499025 -36.90064282098542)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4494860167823</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.89700226720262</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4402112499025</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.90064282098542</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4448486333424</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.89882254409402</v>
       </c>
     </row>
@@ -28494,27 +28502,28 @@
       <c r="P5" t="n">
         <v>363.443634981137</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.44909907329225 -36.8963539381767, 174.43982434398058 -36.899994482236025)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4490990732922</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.8963539381767</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4398243439806</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.89999448223602</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4444617086364</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.89817421020636</v>
       </c>
     </row>
@@ -28571,27 +28580,28 @@
       <c r="P6" t="n">
         <v>354.0398998675019</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.44871212980226 -36.89570560364289, 174.4394374380585 -36.899346137979194)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4487121298023</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.89570560364289</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4394374380585</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.89934613797919</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4440747839304</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.89752587081104</v>
       </c>
     </row>
@@ -28648,27 +28658,28 @@
       <c r="P7" t="n">
         <v>348.7003675086966</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.44832518631242 -36.89505726360117, 174.43905053213615 -36.898697788214996)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4483251863124</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.89505726360117</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4390505321362</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.898697788215</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4436878592243</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.89687752590808</v>
       </c>
     </row>
@@ -28725,27 +28736,28 @@
       <c r="P8" t="n">
         <v>346.8606120525531</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.44793824282266 -36.8944089180517, 174.43866362621353 -36.89804943294328)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4479382428227</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.8944089180517</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4386636262135</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.89804943294328</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4433009345181</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.8962291754975</v>
       </c>
     </row>
@@ -28802,27 +28814,28 @@
       <c r="P9" t="n">
         <v>347.7544679939916</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.44755129933316 -36.89376056699443, 174.43827672029076 -36.897401072164186)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.4475512993332</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.89376056699443</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.4382767202908</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.89740107216419</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4429140098119</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.89558081957931</v>
       </c>
     </row>
@@ -28879,27 +28892,28 @@
       <c r="P10" t="n">
         <v>345.4598813347992</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.44716830561197 -36.89311872182891, 174.43788364138575 -36.896742582655584)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.447168305612</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.89311872182891</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4378836413858</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.89674258265558</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4425259734988</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.89493065224225</v>
       </c>
     </row>
@@ -28956,27 +28970,28 @@
       <c r="P11" t="n">
         <v>346.9658953953166</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.44679015014603 -36.89247754584593, 174.4374923021069 -36.89607952634333)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.446790150146</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.89247754584593</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.4374923021069</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.89607952634333</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.4421412261265</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.89427853609463</v>
       </c>
     </row>
@@ -29033,27 +29048,28 @@
       <c r="P12" t="n">
         <v>347.5552301520863</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.44640919759644 -36.89182941604839, 174.43710824684223 -36.895426167264844)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.4464091975964</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.89182941604839</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.4371082468422</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.89542616726484</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.4417587222193</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.89362779165661</v>
       </c>
     </row>
@@ -29110,27 +29126,28 @@
       <c r="P13" t="n">
         <v>346.3883409345262</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.44599786388756 -36.891131588252854, 174.43677167132014 -36.89485005820778)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.4459978638876</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.89113158825285</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.4367716713201</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.89485005820778</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.4413847676038</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.89299082323032</v>
       </c>
     </row>
@@ -29187,27 +29204,28 @@
       <c r="P14" t="n">
         <v>346.9725295158955</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.445560583991 -36.89044688798262, 174.43641193642776 -36.89428655882498)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.445560583991</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.89044688798262</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.4364119364278</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.89428655882498</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.4409862602094</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.8923667234038</v>
       </c>
     </row>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22793,6 +22793,241 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>467.2366666666667</v>
+      </c>
+      <c r="C502" t="n">
+        <v>455.2842857142857</v>
+      </c>
+      <c r="D502" t="n">
+        <v>439.8866666666667</v>
+      </c>
+      <c r="E502" t="n">
+        <v>437.5642857142857</v>
+      </c>
+      <c r="F502" t="n">
+        <v>433.8411111111111</v>
+      </c>
+      <c r="G502" t="n">
+        <v>428.87</v>
+      </c>
+      <c r="H502" t="n">
+        <v>425.8342857142857</v>
+      </c>
+      <c r="I502" t="n">
+        <v>421.7842857142857</v>
+      </c>
+      <c r="J502" t="n">
+        <v>419.0042857142857</v>
+      </c>
+      <c r="K502" t="n">
+        <v>425.7666666666667</v>
+      </c>
+      <c r="L502" t="n">
+        <v>431.9466666666667</v>
+      </c>
+      <c r="M502" t="n">
+        <v>424.5342857142857</v>
+      </c>
+      <c r="N502" t="n">
+        <v>417.18</v>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>459.6233333333333</v>
+      </c>
+      <c r="C503" t="n">
+        <v>451.3214285714286</v>
+      </c>
+      <c r="D503" t="n">
+        <v>433.8633333333333</v>
+      </c>
+      <c r="E503" t="n">
+        <v>436.3614285714286</v>
+      </c>
+      <c r="F503" t="n">
+        <v>429.9655555555556</v>
+      </c>
+      <c r="G503" t="n">
+        <v>424.6</v>
+      </c>
+      <c r="H503" t="n">
+        <v>424.5814285714285</v>
+      </c>
+      <c r="I503" t="n">
+        <v>421.7514285714286</v>
+      </c>
+      <c r="J503" t="n">
+        <v>418.6714285714286</v>
+      </c>
+      <c r="K503" t="n">
+        <v>424.2333333333333</v>
+      </c>
+      <c r="L503" t="n">
+        <v>424.2333333333333</v>
+      </c>
+      <c r="M503" t="n">
+        <v>422.1214285714286</v>
+      </c>
+      <c r="N503" t="n">
+        <v>413.55</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>459.0066666666667</v>
+      </c>
+      <c r="C504" t="n">
+        <v>456.7885714285715</v>
+      </c>
+      <c r="D504" t="n">
+        <v>456.4666666666667</v>
+      </c>
+      <c r="E504" t="n">
+        <v>456.3985714285715</v>
+      </c>
+      <c r="F504" t="n">
+        <v>443.7744444444445</v>
+      </c>
+      <c r="G504" t="n">
+        <v>434.32</v>
+      </c>
+      <c r="H504" t="n">
+        <v>435.1985714285714</v>
+      </c>
+      <c r="I504" t="n">
+        <v>426.3585714285715</v>
+      </c>
+      <c r="J504" t="n">
+        <v>421.0085714285714</v>
+      </c>
+      <c r="K504" t="n">
+        <v>435.8166666666667</v>
+      </c>
+      <c r="L504" t="n">
+        <v>423.8266666666667</v>
+      </c>
+      <c r="M504" t="n">
+        <v>422.3685714285714</v>
+      </c>
+      <c r="N504" t="n">
+        <v>428.07</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>462.7466666666666</v>
+      </c>
+      <c r="C505" t="n">
+        <v>445.8442857142857</v>
+      </c>
+      <c r="D505" t="n">
+        <v>443.1866666666667</v>
+      </c>
+      <c r="E505" t="n">
+        <v>456.2842857142857</v>
+      </c>
+      <c r="F505" t="n">
+        <v>431.4277777777777</v>
+      </c>
+      <c r="G505" t="n">
+        <v>427.67</v>
+      </c>
+      <c r="H505" t="n">
+        <v>429.5342857142857</v>
+      </c>
+      <c r="I505" t="n">
+        <v>416.4542857142857</v>
+      </c>
+      <c r="J505" t="n">
+        <v>411.0642857142857</v>
+      </c>
+      <c r="K505" t="n">
+        <v>430.8066666666667</v>
+      </c>
+      <c r="L505" t="n">
+        <v>419.7466666666666</v>
+      </c>
+      <c r="M505" t="n">
+        <v>412.9942857142857</v>
+      </c>
+      <c r="N505" t="n">
+        <v>420.42</v>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>432.1466666666667</v>
+      </c>
+      <c r="L506" t="n">
+        <v>403.0266666666667</v>
+      </c>
+      <c r="M506" t="n">
+        <v>384.05</v>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22804,7 +23039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B526"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28072,6 +28307,56 @@
       </c>
       <c r="B526" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -28245,28 +28530,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.076908708142421</v>
+        <v>2.136741482467472</v>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4340472874706849</v>
+        <v>0.4458155089947458</v>
       </c>
       <c r="M2" t="n">
-        <v>13.99369357161114</v>
+        <v>14.18478778819461</v>
       </c>
       <c r="N2" t="n">
-        <v>330.4762637288798</v>
+        <v>336.8515856292684</v>
       </c>
       <c r="O2" t="n">
-        <v>18.17900612599269</v>
+        <v>18.35351698256409</v>
       </c>
       <c r="P2" t="n">
-        <v>378.6036618173904</v>
+        <v>378.0403348641641</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28323,28 +28608,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.111110675676195</v>
+        <v>2.164680326054126</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4662017821692552</v>
+        <v>0.4772536702621432</v>
       </c>
       <c r="M3" t="n">
-        <v>13.54336990898672</v>
+        <v>13.67207083204987</v>
       </c>
       <c r="N3" t="n">
-        <v>294.5521673677845</v>
+        <v>299.326830612463</v>
       </c>
       <c r="O3" t="n">
-        <v>17.16252217384684</v>
+        <v>17.30106443582195</v>
       </c>
       <c r="P3" t="n">
-        <v>371.1240182459621</v>
+        <v>370.6146717816318</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28401,28 +28686,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.021238217871668</v>
+        <v>2.071776861423044</v>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4106516053649485</v>
+        <v>0.4223160291826474</v>
       </c>
       <c r="M4" t="n">
-        <v>13.86351624366217</v>
+        <v>13.97297010460003</v>
       </c>
       <c r="N4" t="n">
-        <v>336.0785294379379</v>
+        <v>340.000502896812</v>
       </c>
       <c r="O4" t="n">
-        <v>18.33244472071136</v>
+        <v>18.43910255128519</v>
       </c>
       <c r="P4" t="n">
-        <v>366.2136991623984</v>
+        <v>365.728883021855</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28479,28 +28764,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>1.999989193492561</v>
+        <v>2.060934839861374</v>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K5" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4401968632381412</v>
+        <v>0.4504521105253042</v>
       </c>
       <c r="M5" t="n">
-        <v>13.02311341988245</v>
+        <v>13.23043690896594</v>
       </c>
       <c r="N5" t="n">
-        <v>287.5579794005195</v>
+        <v>295.8468566442124</v>
       </c>
       <c r="O5" t="n">
-        <v>16.95753459086902</v>
+        <v>17.20019931989779</v>
       </c>
       <c r="P5" t="n">
-        <v>363.443634981137</v>
+        <v>362.8542057351391</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28557,28 +28842,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.174446310624158</v>
+        <v>2.220322008572854</v>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K6" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4441713597391407</v>
+        <v>0.4545822715608919</v>
       </c>
       <c r="M6" t="n">
-        <v>14.38634469324491</v>
+        <v>14.51278173252234</v>
       </c>
       <c r="N6" t="n">
-        <v>329.1286681851446</v>
+        <v>332.1811283503258</v>
       </c>
       <c r="O6" t="n">
-        <v>18.14190365383811</v>
+        <v>18.22583683539183</v>
       </c>
       <c r="P6" t="n">
-        <v>354.0398998675019</v>
+        <v>353.5913290437256</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28635,28 +28920,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.158315312815759</v>
+        <v>2.205044810823007</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3911733983965882</v>
+        <v>0.4025395940191339</v>
       </c>
       <c r="M7" t="n">
-        <v>15.98505567715491</v>
+        <v>16.0810669756431</v>
       </c>
       <c r="N7" t="n">
-        <v>405.3171329006121</v>
+        <v>407.4384177742265</v>
       </c>
       <c r="O7" t="n">
-        <v>20.13248948591833</v>
+        <v>20.18510385839584</v>
       </c>
       <c r="P7" t="n">
-        <v>348.7003675086966</v>
+        <v>348.2458236933842</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28713,28 +28998,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.179217180616797</v>
+        <v>2.22861216459979</v>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4000912887179048</v>
+        <v>0.4116896874294425</v>
       </c>
       <c r="M8" t="n">
-        <v>15.461986088715</v>
+        <v>15.55413896359409</v>
       </c>
       <c r="N8" t="n">
-        <v>391.6840123614568</v>
+        <v>394.5355517154453</v>
       </c>
       <c r="O8" t="n">
-        <v>19.79100837151702</v>
+        <v>19.86291901296094</v>
       </c>
       <c r="P8" t="n">
-        <v>346.8606120525531</v>
+        <v>346.3796705350368</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28791,28 +29076,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>1.997609475274372</v>
+        <v>2.039709157990181</v>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K9" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3854455970764256</v>
+        <v>0.3968802858175455</v>
       </c>
       <c r="M9" t="n">
-        <v>15.06923149597394</v>
+        <v>15.11498894467243</v>
       </c>
       <c r="N9" t="n">
-        <v>358.6581981993436</v>
+        <v>360.1710141501964</v>
       </c>
       <c r="O9" t="n">
-        <v>18.93827336900974</v>
+        <v>18.97817204448828</v>
       </c>
       <c r="P9" t="n">
-        <v>347.7544679939916</v>
+        <v>347.3532761694672</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28869,28 +29154,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.05353454408847</v>
+        <v>2.089367412501271</v>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K10" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3774439124274757</v>
+        <v>0.3881321814084411</v>
       </c>
       <c r="M10" t="n">
-        <v>15.71222546238242</v>
+        <v>15.73243737795472</v>
       </c>
       <c r="N10" t="n">
-        <v>398.5319092473603</v>
+        <v>398.355782983891</v>
       </c>
       <c r="O10" t="n">
-        <v>19.96326399282843</v>
+        <v>19.95885224615612</v>
       </c>
       <c r="P10" t="n">
-        <v>345.4598813347992</v>
+        <v>345.1208340035059</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28947,28 +29232,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.017851957497822</v>
+        <v>2.092514232792617</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K11" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3780151888497238</v>
+        <v>0.3937048328062297</v>
       </c>
       <c r="M11" t="n">
-        <v>15.26038016571168</v>
+        <v>15.431891584009</v>
       </c>
       <c r="N11" t="n">
-        <v>377.6419195184425</v>
+        <v>385.0464849264503</v>
       </c>
       <c r="O11" t="n">
-        <v>19.43301107699068</v>
+        <v>19.62260138020569</v>
       </c>
       <c r="P11" t="n">
-        <v>346.9658953953166</v>
+        <v>346.2467711138696</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29025,28 +29310,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>1.976513230431014</v>
+        <v>2.030494857020819</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K12" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L12" t="n">
-        <v>0.351881936314262</v>
+        <v>0.3659355949058209</v>
       </c>
       <c r="M12" t="n">
-        <v>15.80973419971927</v>
+        <v>15.87491012416441</v>
       </c>
       <c r="N12" t="n">
-        <v>407.9041129450308</v>
+        <v>410.1293756262872</v>
       </c>
       <c r="O12" t="n">
-        <v>20.19663617895393</v>
+        <v>20.25165118271316</v>
       </c>
       <c r="P12" t="n">
-        <v>347.5552301520863</v>
+        <v>347.0349437156734</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29103,28 +29388,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.868186104716283</v>
+        <v>1.914684874760564</v>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K13" t="n">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3125327870485656</v>
+        <v>0.325162531322468</v>
       </c>
       <c r="M13" t="n">
-        <v>16.32200860043179</v>
+        <v>16.4039907803306</v>
       </c>
       <c r="N13" t="n">
-        <v>449.5177959785007</v>
+        <v>451.2640189688106</v>
       </c>
       <c r="O13" t="n">
-        <v>21.20183473142126</v>
+        <v>21.24297575597192</v>
       </c>
       <c r="P13" t="n">
-        <v>346.3883409345262</v>
+        <v>345.9513769917961</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29181,28 +29466,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.616682130213176</v>
+        <v>1.686283723311351</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K14" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2239903461099696</v>
+        <v>0.2391136806474339</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3026667408467</v>
+        <v>18.42271011754826</v>
       </c>
       <c r="N14" t="n">
-        <v>528.8173460130607</v>
+        <v>534.4561755744014</v>
       </c>
       <c r="O14" t="n">
-        <v>22.9960289183385</v>
+        <v>23.11830823339808</v>
       </c>
       <c r="P14" t="n">
-        <v>346.9725295158955</v>
+        <v>346.3140783588991</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29240,7 +29525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O501"/>
+  <dimension ref="A1:O506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61385,6 +61670,351 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:12:16+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-36.90014809089297,174.4455492052056</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-36.899452461160514,174.4452828009644</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-36.8987431918649,174.4450511301967</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-36.89808566237849,174.44468763195576</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-36.897422583921966,174.4443382561452</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-36.8967545614959,174.4440014613635</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-36.89609419291373,174.44364515353152</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-36.89542980502977,174.4432990710366</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-36.894769368367626,174.4429395340534</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-36.894144694275404,174.4424870532433</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-36.89351830042268,174.44204219922932</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>-36.892847688826706,174.44174023897162</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>-36.892188252799514,174.4414118144425</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-36.900117961072425,174.44562596499432</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-36.8994367781794,174.44532275529448</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-36.89871935461329,174.44511185813758</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-36.89808090211602,174.44469975921572</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-36.89740724662408,174.444377329378</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-36.89673766328178,174.44404451104978</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-36.896089234848894,174.44365778461406</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-36.89542967500134,174.44329940229403</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-36.89476805715184,174.44294289346476</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-36.89413869056935,174.4425025505298</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-36.89348814314866,174.44212018306732</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-36.892837935723215,174.44176443789826</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-36.892173101306135,174.4414479148765</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:12:05+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-36.900115520607606,174.44563218240006</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-36.8994584143579,174.44526763444617</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-36.89880880681041,174.44488396852657</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-36.898160198207066,174.44449774363707</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-36.8974618944848,174.44423810850878</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-36.89677612945197,174.44394651501446</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-36.89613125115602,174.4435507444181</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-36.89544790724036,174.44325295422965</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-36.894777263798076,174.44291930549238</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>-36.89418404460429,174.44238547857572</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>-36.893486553178626,174.442124294573</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>-36.892838934709175,174.44176195926366</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>-36.89223370721542,174.4413035130532</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-36.90013032169205,174.44559447466813</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-36.89941510240092,174.44537797693295</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-36.89875625155272,174.44501785920002</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-36.89815974592746,174.44449889587315</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-36.897413033289546,174.44436258730008</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-36.89674981258481,174.44401355963797</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-36.8961088353096,174.44360785078084</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-36.89540871214458,174.44335280673832</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-36.89473809049957,174.4430196696796</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-36.894164428182286,174.44243611431887</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-36.89347060134052,174.44216554442394</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>-36.892801042501326,174.44185597540348</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>-36.89220177643745,174.44137959255525</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>-36.89416967489204,174.44242257102889</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>-36.893405229936114,174.44233458774735</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>-36.89268404508732,174.44214626145666</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr"/>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O506"/>
+  <dimension ref="A1:O508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23004,11 +23004,17 @@
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="n">
+        <v>525.05</v>
+      </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="F506" t="n">
+        <v>513.2577777777778</v>
+      </c>
+      <c r="G506" t="n">
+        <v>492.15</v>
+      </c>
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -23025,6 +23031,108 @@
       <c r="O506" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>496.7333333333333</v>
+      </c>
+      <c r="C507" t="n">
+        <v>489.2385714285714</v>
+      </c>
+      <c r="D507" t="n">
+        <v>468.6333333333333</v>
+      </c>
+      <c r="E507" t="n">
+        <v>479.4685714285715</v>
+      </c>
+      <c r="F507" t="n">
+        <v>487.8455555555556</v>
+      </c>
+      <c r="G507" t="n">
+        <v>482.13</v>
+      </c>
+      <c r="H507" t="n">
+        <v>474.6785714285714</v>
+      </c>
+      <c r="I507" t="n">
+        <v>460.8385714285714</v>
+      </c>
+      <c r="J507" t="n">
+        <v>458.0785714285714</v>
+      </c>
+      <c r="K507" t="n">
+        <v>441.2433333333333</v>
+      </c>
+      <c r="L507" t="n">
+        <v>424.0933333333333</v>
+      </c>
+      <c r="M507" t="n">
+        <v>419.1185714285714</v>
+      </c>
+      <c r="N507" t="n">
+        <v>410.6</v>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>479.69</v>
+      </c>
+      <c r="C508" t="n">
+        <v>478.6428571428572</v>
+      </c>
+      <c r="D508" t="n">
+        <v>471.31</v>
+      </c>
+      <c r="E508" t="n">
+        <v>476.3328571428572</v>
+      </c>
+      <c r="F508" t="n">
+        <v>481.97</v>
+      </c>
+      <c r="G508" t="n">
+        <v>480.05</v>
+      </c>
+      <c r="H508" t="n">
+        <v>468.7428571428572</v>
+      </c>
+      <c r="I508" t="n">
+        <v>458.5028571428572</v>
+      </c>
+      <c r="J508" t="n">
+        <v>450.7528571428572</v>
+      </c>
+      <c r="K508" t="n">
+        <v>435.31</v>
+      </c>
+      <c r="L508" t="n">
+        <v>419.16</v>
+      </c>
+      <c r="M508" t="n">
+        <v>418.5728571428572</v>
+      </c>
+      <c r="N508" t="n">
+        <v>413.64</v>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28357,6 +28465,26 @@
       </c>
       <c r="B531" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -28530,28 +28658,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.136741482467472</v>
+        <v>2.190804711059583</v>
       </c>
       <c r="J2" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K2" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4458155089947458</v>
+        <v>0.4485453950397009</v>
       </c>
       <c r="M2" t="n">
-        <v>14.18478778819461</v>
+        <v>14.42678723099123</v>
       </c>
       <c r="N2" t="n">
-        <v>336.8515856292684</v>
+        <v>351.960434323741</v>
       </c>
       <c r="O2" t="n">
-        <v>18.35351698256409</v>
+        <v>18.76060858084676</v>
       </c>
       <c r="P2" t="n">
-        <v>378.0403348641641</v>
+        <v>377.5282904193603</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28608,28 +28736,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.164680326054126</v>
+        <v>2.26870219044863</v>
       </c>
       <c r="J3" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K3" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4772536702621432</v>
+        <v>0.4703733417136814</v>
       </c>
       <c r="M3" t="n">
-        <v>13.67207083204987</v>
+        <v>14.13244444123064</v>
       </c>
       <c r="N3" t="n">
-        <v>299.326830612463</v>
+        <v>340.5254534184404</v>
       </c>
       <c r="O3" t="n">
-        <v>17.30106443582195</v>
+        <v>18.45333177012868</v>
       </c>
       <c r="P3" t="n">
-        <v>370.6146717816318</v>
+        <v>369.6210211934826</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28686,28 +28814,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.071776861423044</v>
+        <v>2.122146618627339</v>
       </c>
       <c r="J4" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K4" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4223160291826474</v>
+        <v>0.426703343918339</v>
       </c>
       <c r="M4" t="n">
-        <v>13.97297010460003</v>
+        <v>14.16052810798103</v>
       </c>
       <c r="N4" t="n">
-        <v>340.000502896812</v>
+        <v>352.1466941288455</v>
       </c>
       <c r="O4" t="n">
-        <v>18.43910255128519</v>
+        <v>18.76557204374131</v>
       </c>
       <c r="P4" t="n">
-        <v>365.728883021855</v>
+        <v>365.2431773082978</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28764,28 +28892,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>2.060934839861374</v>
+        <v>2.119631973778527</v>
       </c>
       <c r="J5" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K5" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4504521105253042</v>
+        <v>0.4508936594560772</v>
       </c>
       <c r="M5" t="n">
-        <v>13.23043690896594</v>
+        <v>13.50058778407819</v>
       </c>
       <c r="N5" t="n">
-        <v>295.8468566442124</v>
+        <v>313.9091430800224</v>
       </c>
       <c r="O5" t="n">
-        <v>17.20019931989779</v>
+        <v>17.71748128487857</v>
       </c>
       <c r="P5" t="n">
-        <v>362.8542057351391</v>
+        <v>362.2837230764434</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28842,28 +28970,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220322008572854</v>
+        <v>2.333683088985071</v>
       </c>
       <c r="J6" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K6" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4545822715608919</v>
+        <v>0.4467255817808216</v>
       </c>
       <c r="M6" t="n">
-        <v>14.51278173252234</v>
+        <v>15.08443883901734</v>
       </c>
       <c r="N6" t="n">
-        <v>332.1811283503258</v>
+        <v>381.4528665232427</v>
       </c>
       <c r="O6" t="n">
-        <v>18.22583683539183</v>
+        <v>19.5308183782258</v>
       </c>
       <c r="P6" t="n">
-        <v>353.5913290437256</v>
+        <v>352.4781348616664</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28920,28 +29048,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.205044810823007</v>
+        <v>2.315776551538881</v>
       </c>
       <c r="J7" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K7" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4025395940191339</v>
+        <v>0.4031207121167764</v>
       </c>
       <c r="M7" t="n">
-        <v>16.0810669756431</v>
+        <v>16.59183829771804</v>
       </c>
       <c r="N7" t="n">
-        <v>407.4384177742265</v>
+        <v>451.5411895778864</v>
       </c>
       <c r="O7" t="n">
-        <v>20.18510385839584</v>
+        <v>21.24949857238722</v>
       </c>
       <c r="P7" t="n">
-        <v>348.2458236933842</v>
+        <v>347.1639170648323</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28998,28 +29126,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22861216459979</v>
+        <v>2.29250330305747</v>
       </c>
       <c r="J8" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K8" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4116896874294425</v>
+        <v>0.414352953376301</v>
       </c>
       <c r="M8" t="n">
-        <v>15.55413896359409</v>
+        <v>15.80192571775011</v>
       </c>
       <c r="N8" t="n">
-        <v>394.5355517154453</v>
+        <v>415.0696931771545</v>
       </c>
       <c r="O8" t="n">
-        <v>19.86291901296094</v>
+        <v>20.37325926741116</v>
       </c>
       <c r="P8" t="n">
-        <v>346.3796705350368</v>
+        <v>345.7544975325674</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29076,28 +29204,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>2.039709157990181</v>
+        <v>2.094933947973267</v>
       </c>
       <c r="J9" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K9" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3968802858175455</v>
+        <v>0.4008324921841758</v>
       </c>
       <c r="M9" t="n">
-        <v>15.11498894467243</v>
+        <v>15.29447557510088</v>
       </c>
       <c r="N9" t="n">
-        <v>360.1710141501964</v>
+        <v>375.6693160093211</v>
       </c>
       <c r="O9" t="n">
-        <v>18.97817204448828</v>
+        <v>19.3821906916974</v>
       </c>
       <c r="P9" t="n">
-        <v>347.3532761694672</v>
+        <v>346.8241975233855</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29154,28 +29282,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.089367412501271</v>
+        <v>2.140393823589491</v>
       </c>
       <c r="J10" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K10" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3881321814084411</v>
+        <v>0.3930694737898915</v>
       </c>
       <c r="M10" t="n">
-        <v>15.73243737795472</v>
+        <v>15.90975659124988</v>
       </c>
       <c r="N10" t="n">
-        <v>398.355782983891</v>
+        <v>411.5333532999897</v>
       </c>
       <c r="O10" t="n">
-        <v>19.95885224615612</v>
+        <v>20.28628485701583</v>
       </c>
       <c r="P10" t="n">
-        <v>345.1208340035059</v>
+        <v>344.6353059015301</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29232,28 +29360,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.092514232792617</v>
+        <v>2.128965450805706</v>
       </c>
       <c r="J11" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K11" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3937048328062297</v>
+        <v>0.3997870337110072</v>
       </c>
       <c r="M11" t="n">
-        <v>15.431891584009</v>
+        <v>15.54025121261645</v>
       </c>
       <c r="N11" t="n">
-        <v>385.0464849264503</v>
+        <v>390.5399382078432</v>
       </c>
       <c r="O11" t="n">
-        <v>19.62260138020569</v>
+        <v>19.76208334684993</v>
       </c>
       <c r="P11" t="n">
-        <v>346.2467711138696</v>
+        <v>345.8940694517669</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29310,28 +29438,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>2.030494857020819</v>
+        <v>2.051993860430686</v>
       </c>
       <c r="J12" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K12" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3659355949058209</v>
+        <v>0.3717097675546475</v>
       </c>
       <c r="M12" t="n">
-        <v>15.87491012416441</v>
+        <v>15.90046042853675</v>
       </c>
       <c r="N12" t="n">
-        <v>410.1293756262872</v>
+        <v>410.6082145951258</v>
       </c>
       <c r="O12" t="n">
-        <v>20.25165118271316</v>
+        <v>20.26346995445562</v>
       </c>
       <c r="P12" t="n">
-        <v>347.0349437156734</v>
+        <v>346.8265401437275</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29388,28 +29516,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.914684874760564</v>
+        <v>1.937770333411413</v>
       </c>
       <c r="J13" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K13" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L13" t="n">
-        <v>0.325162531322468</v>
+        <v>0.3312749445404136</v>
       </c>
       <c r="M13" t="n">
-        <v>16.4039907803306</v>
+        <v>16.43767429193931</v>
       </c>
       <c r="N13" t="n">
-        <v>451.2640189688106</v>
+        <v>451.8192241731853</v>
       </c>
       <c r="O13" t="n">
-        <v>21.24297575597192</v>
+        <v>21.25603971047254</v>
       </c>
       <c r="P13" t="n">
-        <v>345.9513769917961</v>
+        <v>345.7330348287531</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29466,28 +29594,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.686283723311351</v>
+        <v>1.710937587102658</v>
       </c>
       <c r="J14" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K14" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2391136806474339</v>
+        <v>0.2455326993569572</v>
       </c>
       <c r="M14" t="n">
-        <v>18.42271011754826</v>
+        <v>18.43358361854641</v>
       </c>
       <c r="N14" t="n">
-        <v>534.4561755744014</v>
+        <v>534.2352699857498</v>
       </c>
       <c r="O14" t="n">
-        <v>23.11830823339808</v>
+        <v>23.11353002000668</v>
       </c>
       <c r="P14" t="n">
-        <v>346.3140783588991</v>
+        <v>346.0795517206802</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29525,7 +29653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O506"/>
+  <dimension ref="A1:O508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61985,11 +62113,23 @@
         </is>
       </c>
       <c r="B506" t="inlineStr"/>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-36.89972855636669,174.4445794061376</t>
+        </is>
+      </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
-      <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>-36.897736868246625,174.4435375762188</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-36.89700498570231,174.44336347685498</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -62015,6 +62155,160 @@
         </is>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-36.90026482370255,174.44525181085356</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-36.89958683448508,174.44494046627963</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-36.898856955950734,174.4447613024588</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-36.89825149627817,174.44426515009678</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-36.89763630223339,174.44379378332272</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-36.89696533278772,174.44346449807387</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-36.896287488578075,174.4431527128424</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-36.895584357319365,174.44290533475905</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-36.894923292075816,174.44254517006328</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-36.89420529244144,174.44233063157992</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-36.893487595781956,174.44212159850372</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-36.89282579775111,174.44179455401962</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-36.89216078810116,174.44147725268408</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-36.90019737494333,174.4454236470295</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-36.89954490228675,174.44504729476688</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-36.89886754874501,174.44473431590276</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-36.898239086912625,174.44429676464617</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-36.89761305030584,174.44385302082566</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-36.89695710143366,174.44348546853308</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-36.89626399877531,174.44321255595</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-36.89557511406771,174.44292888293595</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-36.8948944342917,174.44261910622564</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>-36.89418206077548,174.44239059942387</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>-36.89346830761101,174.4421714757736</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>-36.892823591896196,174.44180002707202</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>-36.89217347696312,174.4414470198246</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O508"/>
+  <dimension ref="A1:O509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23136,6 +23136,57 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>469.8633333333333</v>
+      </c>
+      <c r="C509" t="n">
+        <v>459.7028571428572</v>
+      </c>
+      <c r="D509" t="n">
+        <v>451.8433333333333</v>
+      </c>
+      <c r="E509" t="n">
+        <v>458.2528571428571</v>
+      </c>
+      <c r="F509" t="n">
+        <v>452.1288888888889</v>
+      </c>
+      <c r="G509" t="n">
+        <v>442.1</v>
+      </c>
+      <c r="H509" t="n">
+        <v>453.4928571428571</v>
+      </c>
+      <c r="I509" t="n">
+        <v>450.3028571428572</v>
+      </c>
+      <c r="J509" t="n">
+        <v>449.4928571428571</v>
+      </c>
+      <c r="K509" t="n">
+        <v>450.3933333333333</v>
+      </c>
+      <c r="L509" t="n">
+        <v>444.4333333333333</v>
+      </c>
+      <c r="M509" t="n">
+        <v>427.3728571428571</v>
+      </c>
+      <c r="N509" t="n">
+        <v>415.92</v>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23147,7 +23198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28485,6 +28536,16 @@
       </c>
       <c r="B533" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -28658,28 +28719,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.190804711059583</v>
+        <v>2.20841638679694</v>
       </c>
       <c r="J2" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4485453950397009</v>
+        <v>0.4514188334269944</v>
       </c>
       <c r="M2" t="n">
-        <v>14.42678723099123</v>
+        <v>14.49002177958642</v>
       </c>
       <c r="N2" t="n">
-        <v>351.960434323741</v>
+        <v>354.4399520619164</v>
       </c>
       <c r="O2" t="n">
-        <v>18.76060858084676</v>
+        <v>18.82657568603267</v>
       </c>
       <c r="P2" t="n">
-        <v>377.5282904193603</v>
+        <v>377.3594619203664</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28736,28 +28797,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.26870219044863</v>
+        <v>2.284111934333749</v>
       </c>
       <c r="J3" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K3" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4703733417136814</v>
+        <v>0.4731614788901712</v>
       </c>
       <c r="M3" t="n">
-        <v>14.13244444123064</v>
+        <v>14.18096449565267</v>
       </c>
       <c r="N3" t="n">
-        <v>340.5254534184404</v>
+        <v>342.2256873406517</v>
       </c>
       <c r="O3" t="n">
-        <v>18.45333177012868</v>
+        <v>18.49934288942858</v>
       </c>
       <c r="P3" t="n">
-        <v>369.6210211934826</v>
+        <v>369.4719036209715</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28814,28 +28875,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.122146618627339</v>
+        <v>2.137949648839446</v>
       </c>
       <c r="J4" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.426703343918339</v>
+        <v>0.4297790681459984</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16052810798103</v>
+        <v>14.203879126919</v>
       </c>
       <c r="N4" t="n">
-        <v>352.1466941288455</v>
+        <v>353.8873159440748</v>
       </c>
       <c r="O4" t="n">
-        <v>18.76557204374131</v>
+        <v>18.81189293888509</v>
       </c>
       <c r="P4" t="n">
-        <v>365.2431773082978</v>
+        <v>365.0889968379338</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28892,28 +28953,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>2.119631973778527</v>
+        <v>2.139283978523845</v>
       </c>
       <c r="J5" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4508936594560772</v>
+        <v>0.4533668596694328</v>
       </c>
       <c r="M5" t="n">
-        <v>13.50058778407819</v>
+        <v>13.58122187640973</v>
       </c>
       <c r="N5" t="n">
-        <v>313.9091430800224</v>
+        <v>317.398923135619</v>
       </c>
       <c r="O5" t="n">
-        <v>17.71748128487857</v>
+        <v>17.81569317022549</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2837230764434</v>
+        <v>362.0905244244932</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28970,28 +29031,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.333683088985071</v>
+        <v>2.351630790691118</v>
       </c>
       <c r="J6" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4467255817808216</v>
+        <v>0.4493239153191152</v>
       </c>
       <c r="M6" t="n">
-        <v>15.08443883901734</v>
+        <v>15.15511976035484</v>
       </c>
       <c r="N6" t="n">
-        <v>381.4528665232427</v>
+        <v>384.2384652046822</v>
       </c>
       <c r="O6" t="n">
-        <v>19.5308183782258</v>
+        <v>19.60200156118457</v>
       </c>
       <c r="P6" t="n">
-        <v>352.4781348616664</v>
+        <v>352.299713590131</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29048,28 +29109,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.315776551538881</v>
+        <v>2.332149639538556</v>
       </c>
       <c r="J7" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K7" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4031207121167764</v>
+        <v>0.4061152462744103</v>
       </c>
       <c r="M7" t="n">
-        <v>16.59183829771804</v>
+        <v>16.64437251918633</v>
       </c>
       <c r="N7" t="n">
-        <v>451.5411895778864</v>
+        <v>453.4389253356148</v>
       </c>
       <c r="O7" t="n">
-        <v>21.24949857238722</v>
+        <v>21.29410541289807</v>
       </c>
       <c r="P7" t="n">
-        <v>347.1639170648323</v>
+        <v>347.0019800198948</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29126,28 +29187,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.29250330305747</v>
+        <v>2.31547727914816</v>
       </c>
       <c r="J8" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K8" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.414352953376301</v>
+        <v>0.4171477408487985</v>
       </c>
       <c r="M8" t="n">
-        <v>15.80192571775011</v>
+        <v>15.87815991212639</v>
       </c>
       <c r="N8" t="n">
-        <v>415.0696931771545</v>
+        <v>419.7339660662769</v>
       </c>
       <c r="O8" t="n">
-        <v>20.37325926741116</v>
+        <v>20.48740994040674</v>
       </c>
       <c r="P8" t="n">
-        <v>345.7544975325674</v>
+        <v>345.527263639916</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29204,28 +29265,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>2.094933947973267</v>
+        <v>2.117892447215198</v>
       </c>
       <c r="J9" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K9" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4008324921841758</v>
+        <v>0.4035961961585322</v>
       </c>
       <c r="M9" t="n">
-        <v>15.29447557510088</v>
+        <v>15.36073316735881</v>
       </c>
       <c r="N9" t="n">
-        <v>375.6693160093211</v>
+        <v>380.5981803107459</v>
       </c>
       <c r="O9" t="n">
-        <v>19.3821906916974</v>
+        <v>19.50892565752266</v>
       </c>
       <c r="P9" t="n">
-        <v>346.8241975233855</v>
+        <v>346.6018191836388</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29282,28 +29343,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.140393823589491</v>
+        <v>2.163341762597287</v>
       </c>
       <c r="J10" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K10" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3930694737898915</v>
+        <v>0.3959351246025612</v>
       </c>
       <c r="M10" t="n">
-        <v>15.90975659124988</v>
+        <v>15.98728918058292</v>
       </c>
       <c r="N10" t="n">
-        <v>411.5333532999897</v>
+        <v>416.4952363026764</v>
       </c>
       <c r="O10" t="n">
-        <v>20.28628485701583</v>
+        <v>20.40821492200326</v>
       </c>
       <c r="P10" t="n">
-        <v>344.6353059015301</v>
+        <v>344.414469922145</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29360,28 +29421,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.128965450805706</v>
+        <v>2.152762367566636</v>
       </c>
       <c r="J11" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K11" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3997870337110072</v>
+        <v>0.4025879987076628</v>
       </c>
       <c r="M11" t="n">
-        <v>15.54025121261645</v>
+        <v>15.6226077081252</v>
       </c>
       <c r="N11" t="n">
-        <v>390.5399382078432</v>
+        <v>395.7429050376678</v>
       </c>
       <c r="O11" t="n">
-        <v>19.76208334684993</v>
+        <v>19.89328793934446</v>
       </c>
       <c r="P11" t="n">
-        <v>345.8940694517669</v>
+        <v>345.661187988208</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29438,28 +29499,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>2.051993860430686</v>
+        <v>2.073572646794903</v>
       </c>
       <c r="J12" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K12" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3717097675546475</v>
+        <v>0.374908320194479</v>
       </c>
       <c r="M12" t="n">
-        <v>15.90046042853675</v>
+        <v>15.96768005947979</v>
       </c>
       <c r="N12" t="n">
-        <v>410.6082145951258</v>
+        <v>414.6715845571843</v>
       </c>
       <c r="O12" t="n">
-        <v>20.26346995445562</v>
+        <v>20.36348655209084</v>
       </c>
       <c r="P12" t="n">
-        <v>346.8265401437275</v>
+        <v>346.6149288699082</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29516,28 +29577,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.937770333411413</v>
+        <v>1.953267181350651</v>
       </c>
       <c r="J13" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K13" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3312749445404136</v>
+        <v>0.3346926000813653</v>
       </c>
       <c r="M13" t="n">
-        <v>16.43767429193931</v>
+        <v>16.47370137719499</v>
       </c>
       <c r="N13" t="n">
-        <v>451.8192241731853</v>
+        <v>453.2572285566703</v>
       </c>
       <c r="O13" t="n">
-        <v>21.25603971047254</v>
+        <v>21.2898386221378</v>
       </c>
       <c r="P13" t="n">
-        <v>345.7330348287531</v>
+        <v>345.5846989937241</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29594,28 +29655,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.710937587102658</v>
+        <v>1.725085748174589</v>
       </c>
       <c r="J14" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K14" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2455326993569572</v>
+        <v>0.2490221717512272</v>
       </c>
       <c r="M14" t="n">
-        <v>18.43358361854641</v>
+        <v>18.44658247595435</v>
       </c>
       <c r="N14" t="n">
-        <v>534.2352699857498</v>
+        <v>534.5747261574716</v>
       </c>
       <c r="O14" t="n">
-        <v>23.11353002000668</v>
+        <v>23.120872089034</v>
       </c>
       <c r="P14" t="n">
-        <v>346.0795517206802</v>
+        <v>345.9433349331931</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29653,7 +29714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O508"/>
+  <dimension ref="A1:O509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62309,6 +62370,83 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-36.90015848593365,174.445522722392</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-36.899469947612424,174.44523825201077</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-36.89879051010464,174.44493058159102</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-36.89816753644237,174.44447904860473</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-36.89749495662699,174.44415387911232</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-36.896806918160905,174.44386807778625</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-36.89620364878604,174.4433663043159</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-36.89554266371694,174.4430115535539</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-36.894889470838336,174.44263182300912</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-36.89424111874474,174.4422381530062</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-36.893567120173365,174.44191595559718</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>-36.89285916272027,174.4417117704809</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>-36.89218299360467,174.44142434517332</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O509"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23187,6 +23187,104 @@
         </is>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>457.4366666666667</v>
+      </c>
+      <c r="C510" t="n">
+        <v>454.56</v>
+      </c>
+      <c r="D510" t="n">
+        <v>441.8066666666667</v>
+      </c>
+      <c r="E510" t="n">
+        <v>431.7</v>
+      </c>
+      <c r="F510" t="n">
+        <v>443.2744444444445</v>
+      </c>
+      <c r="G510" t="n">
+        <v>442.42</v>
+      </c>
+      <c r="H510" t="n">
+        <v>434.82</v>
+      </c>
+      <c r="I510" t="n">
+        <v>437.18</v>
+      </c>
+      <c r="J510" t="n">
+        <v>440.14</v>
+      </c>
+      <c r="K510" t="n">
+        <v>427.2366666666667</v>
+      </c>
+      <c r="L510" t="n">
+        <v>430.9066666666667</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>439.8766666666667</v>
+      </c>
+      <c r="C511" t="n">
+        <v>423.7557142857143</v>
+      </c>
+      <c r="D511" t="n">
+        <v>406.9366666666667</v>
+      </c>
+      <c r="E511" t="n">
+        <v>434.9957142857143</v>
+      </c>
+      <c r="F511" t="n">
+        <v>414.4177777777778</v>
+      </c>
+      <c r="G511" t="n">
+        <v>409.43</v>
+      </c>
+      <c r="H511" t="n">
+        <v>421.1257142857143</v>
+      </c>
+      <c r="I511" t="n">
+        <v>414.3857142857143</v>
+      </c>
+      <c r="J511" t="n">
+        <v>408.3657142857143</v>
+      </c>
+      <c r="K511" t="n">
+        <v>415.8066666666667</v>
+      </c>
+      <c r="L511" t="n">
+        <v>404.0566666666667</v>
+      </c>
+      <c r="M511" t="n">
+        <v>416.7557142857143</v>
+      </c>
+      <c r="N511" t="n">
+        <v>398.3</v>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23198,7 +23296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B534"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28546,6 +28644,26 @@
       </c>
       <c r="B534" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -28719,28 +28837,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.20841638679694</v>
+        <v>2.222090452953526</v>
       </c>
       <c r="J2" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4514188334269944</v>
+        <v>0.4560752112914058</v>
       </c>
       <c r="M2" t="n">
-        <v>14.49002177958642</v>
+        <v>14.49014439418353</v>
       </c>
       <c r="N2" t="n">
-        <v>354.4399520619164</v>
+        <v>353.980824941078</v>
       </c>
       <c r="O2" t="n">
-        <v>18.82657568603267</v>
+        <v>18.81437814388448</v>
       </c>
       <c r="P2" t="n">
-        <v>377.3594619203664</v>
+        <v>377.2282142483917</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28797,28 +28915,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.284111934333749</v>
+        <v>2.294229014784256</v>
       </c>
       <c r="J3" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4731614788901712</v>
+        <v>0.4766449150701112</v>
       </c>
       <c r="M3" t="n">
-        <v>14.18096449565267</v>
+        <v>14.18914356058952</v>
       </c>
       <c r="N3" t="n">
-        <v>342.2256873406517</v>
+        <v>342.2407922122126</v>
       </c>
       <c r="O3" t="n">
-        <v>18.49934288942858</v>
+        <v>18.49975113919678</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4719036209715</v>
+        <v>369.3739357163062</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28875,28 +28993,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.137949648839446</v>
+        <v>2.141692836425963</v>
       </c>
       <c r="J4" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4297790681459984</v>
+        <v>0.4320474001942778</v>
       </c>
       <c r="M4" t="n">
-        <v>14.203879126919</v>
+        <v>14.22054769968824</v>
       </c>
       <c r="N4" t="n">
-        <v>353.8873159440748</v>
+        <v>353.6993482832947</v>
       </c>
       <c r="O4" t="n">
-        <v>18.81189293888509</v>
+        <v>18.80689629586165</v>
       </c>
       <c r="P4" t="n">
-        <v>365.0889968379338</v>
+        <v>365.0525262133264</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28953,28 +29071,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>2.139283978523845</v>
+        <v>2.154185870941645</v>
       </c>
       <c r="J5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4533668596694328</v>
+        <v>0.4583541265735858</v>
       </c>
       <c r="M5" t="n">
-        <v>13.58122187640973</v>
+        <v>13.60004965437932</v>
       </c>
       <c r="N5" t="n">
-        <v>317.398923135619</v>
+        <v>317.0388765813361</v>
       </c>
       <c r="O5" t="n">
-        <v>17.81569317022549</v>
+        <v>17.80558554446711</v>
       </c>
       <c r="P5" t="n">
-        <v>362.0905244244932</v>
+        <v>361.9437801041825</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29031,28 +29149,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.351630790691118</v>
+        <v>2.365682964252271</v>
       </c>
       <c r="J6" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K6" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4493239153191152</v>
+        <v>0.4532807330899539</v>
       </c>
       <c r="M6" t="n">
-        <v>15.15511976035484</v>
+        <v>15.16534208519358</v>
       </c>
       <c r="N6" t="n">
-        <v>384.2384652046822</v>
+        <v>384.5421229965879</v>
       </c>
       <c r="O6" t="n">
-        <v>19.60200156118457</v>
+        <v>19.60974561274541</v>
       </c>
       <c r="P6" t="n">
-        <v>352.299713590131</v>
+        <v>352.1598792582901</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29109,28 +29227,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.332149639538556</v>
+        <v>2.34919122029233</v>
       </c>
       <c r="J7" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4061152462744103</v>
+        <v>0.410432745492314</v>
       </c>
       <c r="M7" t="n">
-        <v>16.64437251918633</v>
+        <v>16.65923922881785</v>
       </c>
       <c r="N7" t="n">
-        <v>453.4389253356148</v>
+        <v>454.2034485756583</v>
       </c>
       <c r="O7" t="n">
-        <v>21.29410541289807</v>
+        <v>21.31204937531016</v>
       </c>
       <c r="P7" t="n">
-        <v>347.0019800198948</v>
+        <v>346.8332593565709</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29187,28 +29305,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.31547727914816</v>
+        <v>2.336477290476623</v>
       </c>
       <c r="J8" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4171477408487985</v>
+        <v>0.4225198281862226</v>
       </c>
       <c r="M8" t="n">
-        <v>15.87815991212639</v>
+        <v>15.90500459236076</v>
       </c>
       <c r="N8" t="n">
-        <v>419.7339660662769</v>
+        <v>420.3213936525689</v>
       </c>
       <c r="O8" t="n">
-        <v>20.48740994040674</v>
+        <v>20.50174123465051</v>
       </c>
       <c r="P8" t="n">
-        <v>345.527263639916</v>
+        <v>345.3192793629596</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29265,28 +29383,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>2.117892447215198</v>
+        <v>2.140224514638316</v>
       </c>
       <c r="J9" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K9" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4035961961585322</v>
+        <v>0.4089495458592814</v>
       </c>
       <c r="M9" t="n">
-        <v>15.36073316735881</v>
+        <v>15.38809933618972</v>
       </c>
       <c r="N9" t="n">
-        <v>380.5981803107459</v>
+        <v>382.1879312217047</v>
       </c>
       <c r="O9" t="n">
-        <v>19.50892565752266</v>
+        <v>19.54962739342376</v>
       </c>
       <c r="P9" t="n">
-        <v>346.6018191836388</v>
+        <v>346.3852386845334</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29343,28 +29461,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.163341762597287</v>
+        <v>2.185089539348868</v>
       </c>
       <c r="J10" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K10" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3959351246025612</v>
+        <v>0.400881556021307</v>
       </c>
       <c r="M10" t="n">
-        <v>15.98728918058292</v>
+        <v>16.02064847275111</v>
       </c>
       <c r="N10" t="n">
-        <v>416.4952363026764</v>
+        <v>418.4142026809216</v>
       </c>
       <c r="O10" t="n">
-        <v>20.40821492200326</v>
+        <v>20.45517544977118</v>
       </c>
       <c r="P10" t="n">
-        <v>344.414469922145</v>
+        <v>344.2049408897616</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29421,28 +29539,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.152762367566636</v>
+        <v>2.171817139978192</v>
       </c>
       <c r="J11" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K11" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4025879987076628</v>
+        <v>0.4080023506621674</v>
       </c>
       <c r="M11" t="n">
-        <v>15.6226077081252</v>
+        <v>15.64067024039573</v>
       </c>
       <c r="N11" t="n">
-        <v>395.7429050376678</v>
+        <v>395.9031612658784</v>
       </c>
       <c r="O11" t="n">
-        <v>19.89328793934446</v>
+        <v>19.89731542861696</v>
       </c>
       <c r="P11" t="n">
-        <v>345.661187988208</v>
+        <v>345.4744524953145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29499,28 +29617,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>2.073572646794903</v>
+        <v>2.089927303427036</v>
       </c>
       <c r="J12" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K12" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L12" t="n">
-        <v>0.374908320194479</v>
+        <v>0.3796441849993319</v>
       </c>
       <c r="M12" t="n">
-        <v>15.96768005947979</v>
+        <v>15.9675207419903</v>
       </c>
       <c r="N12" t="n">
-        <v>414.6715845571843</v>
+        <v>414.9485683612919</v>
       </c>
       <c r="O12" t="n">
-        <v>20.36348655209084</v>
+        <v>20.37028640842568</v>
       </c>
       <c r="P12" t="n">
-        <v>346.6149288699082</v>
+        <v>346.4543695520728</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29577,28 +29695,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.953267181350651</v>
+        <v>1.963320648891524</v>
       </c>
       <c r="J13" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K13" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3346926000813653</v>
+        <v>0.3376205063634986</v>
       </c>
       <c r="M13" t="n">
-        <v>16.47370137719499</v>
+        <v>16.48099961169052</v>
       </c>
       <c r="N13" t="n">
-        <v>453.2572285566703</v>
+        <v>453.1549289476469</v>
       </c>
       <c r="O13" t="n">
-        <v>21.2898386221378</v>
+        <v>21.28743594112844</v>
       </c>
       <c r="P13" t="n">
-        <v>345.5846989937241</v>
+        <v>345.4882431329842</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29655,28 +29773,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.725085748174589</v>
+        <v>1.729268605232388</v>
       </c>
       <c r="J14" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K14" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2490221717512272</v>
+        <v>0.2509883553470185</v>
       </c>
       <c r="M14" t="n">
-        <v>18.44658247595435</v>
+        <v>18.41045621087098</v>
       </c>
       <c r="N14" t="n">
-        <v>534.5747261574716</v>
+        <v>533.1094778924663</v>
       </c>
       <c r="O14" t="n">
-        <v>23.120872089034</v>
+        <v>23.08916364644822</v>
       </c>
       <c r="P14" t="n">
-        <v>345.9433349331931</v>
+        <v>345.9029686417735</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29714,7 +29832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O509"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62447,6 +62565,152 @@
         </is>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-36.900109307314665,174.44564801157725</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-36.89944959480553,174.44529010336126</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-36.89875079022983,174.4450317725273</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-36.898062454674125,174.44474675593426</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>-36.89745991576717,174.4442431494997</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>-36.89680818453346,174.44386485157497</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>-36.89612975299814,174.44355456111174</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>-36.895490731732025,174.44314385519897</t>
+        </is>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>-36.89485262756645,174.44272621840048</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-36.89415045000045,174.44247219605975</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-36.89351423427628,174.44205271390774</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-36.900039813273544,174.4458250562081</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-36.89932768668301,174.44560067795868</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-36.89861279236173,174.44538333542243</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-36.89807549735097,174.44471352840688</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-36.897345717022695,174.44453408143843</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-36.89667762898803,174.44419745322102</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-36.8960755591764,174.4436926245013</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-36.89540052599568,174.44337366154016</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-36.894727460064246,174.44304690539627</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-36.89410569625382,174.44258771818184</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>-36.893409257009075,174.44232417420184</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>-36.892816246744026,174.44181825147461</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>-36.89210944822119,174.44159957632056</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23285,6 +23285,157 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:12:15+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>453.42</v>
+      </c>
+      <c r="C512" t="n">
+        <v>453.4771428571429</v>
+      </c>
+      <c r="D512" t="n">
+        <v>447.94</v>
+      </c>
+      <c r="E512" t="n">
+        <v>445.3071428571428</v>
+      </c>
+      <c r="F512" t="n">
+        <v>427.86</v>
+      </c>
+      <c r="G512" t="n">
+        <v>423.68</v>
+      </c>
+      <c r="H512" t="n">
+        <v>423.5771428571429</v>
+      </c>
+      <c r="I512" t="n">
+        <v>429.1071428571428</v>
+      </c>
+      <c r="J512" t="n">
+        <v>426.2571428571428</v>
+      </c>
+      <c r="K512" t="n">
+        <v>436.86</v>
+      </c>
+      <c r="L512" t="n">
+        <v>436.54</v>
+      </c>
+      <c r="M512" t="n">
+        <v>421.4071428571429</v>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>440.74</v>
+      </c>
+      <c r="C513" t="n">
+        <v>443.2828571428572</v>
+      </c>
+      <c r="D513" t="n">
+        <v>431.66</v>
+      </c>
+      <c r="E513" t="n">
+        <v>435.7228571428572</v>
+      </c>
+      <c r="F513" t="n">
+        <v>428.6366666666667</v>
+      </c>
+      <c r="G513" t="n">
+        <v>428.37</v>
+      </c>
+      <c r="H513" t="n">
+        <v>419.7928571428571</v>
+      </c>
+      <c r="I513" t="n">
+        <v>423.2728571428572</v>
+      </c>
+      <c r="J513" t="n">
+        <v>427.1028571428572</v>
+      </c>
+      <c r="K513" t="n">
+        <v>429.71</v>
+      </c>
+      <c r="L513" t="n">
+        <v>417.79</v>
+      </c>
+      <c r="M513" t="n">
+        <v>412.6128571428572</v>
+      </c>
+      <c r="N513" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>434.8066666666667</v>
+      </c>
+      <c r="C514" t="n">
+        <v>429.1814285714286</v>
+      </c>
+      <c r="D514" t="n">
+        <v>422.3866666666667</v>
+      </c>
+      <c r="E514" t="n">
+        <v>424.0514285714286</v>
+      </c>
+      <c r="F514" t="n">
+        <v>420.8811111111111</v>
+      </c>
+      <c r="G514" t="n">
+        <v>421.78</v>
+      </c>
+      <c r="H514" t="n">
+        <v>423.1614285714285</v>
+      </c>
+      <c r="I514" t="n">
+        <v>428.0714285714286</v>
+      </c>
+      <c r="J514" t="n">
+        <v>422.8114285714286</v>
+      </c>
+      <c r="K514" t="n">
+        <v>417.6666666666667</v>
+      </c>
+      <c r="L514" t="n">
+        <v>415.2866666666667</v>
+      </c>
+      <c r="M514" t="n">
+        <v>409.7014285714286</v>
+      </c>
+      <c r="N514" t="n">
+        <v>372.64</v>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23296,7 +23447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28664,6 +28815,36 @@
       </c>
       <c r="B536" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -28837,28 +29018,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.222090452953526</v>
+        <v>2.233493175128986</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4560752112914058</v>
+        <v>0.4618266156076609</v>
       </c>
       <c r="M2" t="n">
-        <v>14.49014439418353</v>
+        <v>14.44128781263983</v>
       </c>
       <c r="N2" t="n">
-        <v>353.980824941078</v>
+        <v>352.098377435797</v>
       </c>
       <c r="O2" t="n">
-        <v>18.81437814388448</v>
+        <v>18.76428462360867</v>
       </c>
       <c r="P2" t="n">
-        <v>377.2282142483917</v>
+        <v>377.1183811503062</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28915,28 +29096,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.294229014784256</v>
+        <v>2.312694260067828</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K3" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4766449150701112</v>
+        <v>0.4830167258336182</v>
       </c>
       <c r="M3" t="n">
-        <v>14.18914356058952</v>
+        <v>14.18177769145895</v>
       </c>
       <c r="N3" t="n">
-        <v>342.2407922122126</v>
+        <v>341.6066529834853</v>
       </c>
       <c r="O3" t="n">
-        <v>18.49975113919678</v>
+        <v>18.48260406391603</v>
       </c>
       <c r="P3" t="n">
-        <v>369.3739357163062</v>
+        <v>369.1943715461808</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28993,28 +29174,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.141692836425963</v>
+        <v>2.160879709011124</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K4" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4320474001942778</v>
+        <v>0.4387245904078688</v>
       </c>
       <c r="M4" t="n">
-        <v>14.22054769968824</v>
+        <v>14.2060732298028</v>
       </c>
       <c r="N4" t="n">
-        <v>353.6993482832947</v>
+        <v>353.1275827161737</v>
       </c>
       <c r="O4" t="n">
-        <v>18.80689629586165</v>
+        <v>18.79168919273022</v>
       </c>
       <c r="P4" t="n">
-        <v>365.0525262133264</v>
+        <v>364.8644153832569</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29071,28 +29252,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>2.154185870941645</v>
+        <v>2.177931952320184</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K5" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4583541265735858</v>
+        <v>0.4654218531799619</v>
       </c>
       <c r="M5" t="n">
-        <v>13.60004965437932</v>
+        <v>13.63663766013998</v>
       </c>
       <c r="N5" t="n">
-        <v>317.0388765813361</v>
+        <v>317.3619447860694</v>
       </c>
       <c r="O5" t="n">
-        <v>17.80558554446711</v>
+        <v>17.81465533727974</v>
       </c>
       <c r="P5" t="n">
-        <v>361.9437801041825</v>
+        <v>361.7091320688461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29149,28 +29330,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.365682964252271</v>
+        <v>2.381825475787759</v>
       </c>
       <c r="J6" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K6" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4532807330899539</v>
+        <v>0.4595151036442805</v>
       </c>
       <c r="M6" t="n">
-        <v>15.16534208519358</v>
+        <v>15.15177293254701</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5421229965879</v>
+        <v>382.881446430355</v>
       </c>
       <c r="O6" t="n">
-        <v>19.60974561274541</v>
+        <v>19.56735665414097</v>
       </c>
       <c r="P6" t="n">
-        <v>352.1598792582901</v>
+        <v>351.9985342751052</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29227,28 +29408,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34919122029233</v>
+        <v>2.371963977360343</v>
       </c>
       <c r="J7" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K7" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L7" t="n">
-        <v>0.410432745492314</v>
+        <v>0.4176060779936953</v>
       </c>
       <c r="M7" t="n">
-        <v>16.65923922881785</v>
+        <v>16.66613125930524</v>
       </c>
       <c r="N7" t="n">
-        <v>454.2034485756583</v>
+        <v>452.9004277966865</v>
       </c>
       <c r="O7" t="n">
-        <v>21.31204937531016</v>
+        <v>21.28145737013061</v>
       </c>
       <c r="P7" t="n">
-        <v>346.8332593565709</v>
+        <v>346.6067431339869</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29305,28 +29486,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.336477290476623</v>
+        <v>2.35874070106801</v>
       </c>
       <c r="J8" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K8" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4225198281862226</v>
+        <v>0.4298144591559078</v>
       </c>
       <c r="M8" t="n">
-        <v>15.90500459236076</v>
+        <v>15.89833692260306</v>
       </c>
       <c r="N8" t="n">
-        <v>420.3213936525689</v>
+        <v>419.1167107409574</v>
       </c>
       <c r="O8" t="n">
-        <v>20.50174123465051</v>
+        <v>20.47234013836614</v>
       </c>
       <c r="P8" t="n">
-        <v>345.3192793629596</v>
+        <v>345.0978581578826</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29383,28 +29564,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>2.140224514638316</v>
+        <v>2.173916412906788</v>
       </c>
       <c r="J9" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K9" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4089495458592814</v>
+        <v>0.4174427461444924</v>
       </c>
       <c r="M9" t="n">
-        <v>15.38809933618972</v>
+        <v>15.43154721100124</v>
       </c>
       <c r="N9" t="n">
-        <v>382.1879312217047</v>
+        <v>383.7890142837157</v>
       </c>
       <c r="O9" t="n">
-        <v>19.54962739342376</v>
+        <v>19.59053379272029</v>
       </c>
       <c r="P9" t="n">
-        <v>346.3852386845334</v>
+        <v>346.0570630278299</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29461,28 +29642,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.185089539348868</v>
+        <v>2.218064211777269</v>
       </c>
       <c r="J10" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K10" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L10" t="n">
-        <v>0.400881556021307</v>
+        <v>0.4092798319415583</v>
       </c>
       <c r="M10" t="n">
-        <v>16.02064847275111</v>
+        <v>16.07194732801021</v>
       </c>
       <c r="N10" t="n">
-        <v>418.4142026809216</v>
+        <v>419.6076843805765</v>
       </c>
       <c r="O10" t="n">
-        <v>20.45517544977118</v>
+        <v>20.48432777468122</v>
       </c>
       <c r="P10" t="n">
-        <v>344.2049408897616</v>
+        <v>343.8858067720461</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29539,28 +29720,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.171817139978192</v>
+        <v>2.208485955126053</v>
       </c>
       <c r="J11" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K11" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4080023506621674</v>
+        <v>0.4164519364697364</v>
       </c>
       <c r="M11" t="n">
-        <v>15.64067024039573</v>
+        <v>15.71097312830734</v>
       </c>
       <c r="N11" t="n">
-        <v>395.9031612658784</v>
+        <v>398.4324619054715</v>
       </c>
       <c r="O11" t="n">
-        <v>19.89731542861696</v>
+        <v>19.96077307885322</v>
       </c>
       <c r="P11" t="n">
-        <v>345.4744524953145</v>
+        <v>345.1136747683229</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29617,28 +29798,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>2.089927303427036</v>
+        <v>2.121566011589634</v>
       </c>
       <c r="J12" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K12" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3796441849993319</v>
+        <v>0.387812578435628</v>
       </c>
       <c r="M12" t="n">
-        <v>15.9675207419903</v>
+        <v>16.00294366607582</v>
       </c>
       <c r="N12" t="n">
-        <v>414.9485683612919</v>
+        <v>416.2242822543527</v>
       </c>
       <c r="O12" t="n">
-        <v>20.37028640842568</v>
+        <v>20.40157548461277</v>
       </c>
       <c r="P12" t="n">
-        <v>346.4543695520728</v>
+        <v>346.1424277957506</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29695,28 +29876,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.963320648891524</v>
+        <v>1.989341987482247</v>
       </c>
       <c r="J13" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K13" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3376205063634986</v>
+        <v>0.3457470599630181</v>
       </c>
       <c r="M13" t="n">
-        <v>16.48099961169052</v>
+        <v>16.48269462659083</v>
       </c>
       <c r="N13" t="n">
-        <v>453.1549289476469</v>
+        <v>452.2476435760088</v>
       </c>
       <c r="O13" t="n">
-        <v>21.28743594112844</v>
+        <v>21.26611491495353</v>
       </c>
       <c r="P13" t="n">
-        <v>345.4882431329842</v>
+        <v>345.237739822816</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29773,28 +29954,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.729268605232388</v>
+        <v>1.707216627426503</v>
       </c>
       <c r="J14" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K14" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2509883553470185</v>
+        <v>0.2475479849183266</v>
       </c>
       <c r="M14" t="n">
-        <v>18.41045621087098</v>
+        <v>18.4336030871464</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1094778924663</v>
+        <v>532.3182468546578</v>
       </c>
       <c r="O14" t="n">
-        <v>23.08916364644822</v>
+        <v>23.07202303341989</v>
       </c>
       <c r="P14" t="n">
-        <v>345.9029686417735</v>
+        <v>346.1167331292601</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29832,7 +30013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62711,6 +62892,233 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:12:15+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-36.900093411301036,174.44568850871707</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-36.899445309406154,174.44530102094757</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-36.8987750627638,174.4449699355016</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-36.89811630441916,174.44460956808402</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-36.89739891399852,174.44439855751816</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-36.89673402244678,174.44405378638947</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-36.89608526048128,174.44366790964253</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-36.89545878438785,174.44322524380777</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-36.894797939342716,174.44286633345993</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-36.894188129724775,174.44237493367046</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-36.893536259225016,174.44199575938586</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-36.892835048480286,174.44177160158168</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-36.900043229938,174.4458163518575</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-36.899404965545465,174.4454038017519</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-36.898710634946994,174.44513407238853</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-36.898078374992814,174.444706197321</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-36.89740198761651,174.44439072719155</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-36.8967525827831,174.4440065023114</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-36.896070284513776,174.44370606212283</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-36.89543569588222,174.4432840636334</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-36.894801270838215,174.4428577979528</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-36.894160134232145,174.44244719825377</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-36.89346295123018,174.44218532682171</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-36.89279950071079,174.44185980080672</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-36.89198664940828,174.44189215786966</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:25+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-36.900019748602105,174.44587617324723</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-36.899349159033335,174.44554597496085</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-36.8986739357926,174.4452275671068</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-36.89803218567864,174.44482386910244</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-36.89737129538578,174.444468918407</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-36.89672650332875,174.4440729419795</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-36.896083615330284,174.4436721007991</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-36.89545468567137,174.4432356856257</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-36.894784365743334,174.44290110987646</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-36.89411297902321,174.4425689193157</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-36.89345316377596,174.44221063615265</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-36.8927877322831,174.441888999947</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-36.892002343653324,174.44185476476775</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O514"/>
+  <dimension ref="A1:O515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23436,6 +23436,57 @@
         </is>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>434.0233333333333</v>
+      </c>
+      <c r="C515" t="n">
+        <v>432.4428571428572</v>
+      </c>
+      <c r="D515" t="n">
+        <v>425.0833333333333</v>
+      </c>
+      <c r="E515" t="n">
+        <v>423.5728571428572</v>
+      </c>
+      <c r="F515" t="n">
+        <v>412.1988888888889</v>
+      </c>
+      <c r="G515" t="n">
+        <v>412.63</v>
+      </c>
+      <c r="H515" t="n">
+        <v>419.1928571428572</v>
+      </c>
+      <c r="I515" t="n">
+        <v>421.3928571428572</v>
+      </c>
+      <c r="J515" t="n">
+        <v>420.4228571428571</v>
+      </c>
+      <c r="K515" t="n">
+        <v>427.3833333333333</v>
+      </c>
+      <c r="L515" t="n">
+        <v>413.5933333333333</v>
+      </c>
+      <c r="M515" t="n">
+        <v>404.8928571428572</v>
+      </c>
+      <c r="N515" t="n">
+        <v>372.55</v>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23447,7 +23498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28845,6 +28896,16 @@
       </c>
       <c r="B539" t="n">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -30013,7 +30074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O514"/>
+  <dimension ref="A1:O515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63119,6 +63180,83 @@
         </is>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-36.90001664853589,174.44588407101216</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-36.89936206617679,174.44551309265404</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-36.898684607840245,174.44520037904036</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-36.89803029174471,174.4448286940745</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-36.89733693585751,174.44455645216462</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-36.896690292797054,174.4441651912145</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-36.896067910067096,174.44371211121234</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-36.89542825599532,174.44330301732074</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>-36.8947749565094,174.44292521690411</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>-36.894151024267714,174.44247071371026</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>-36.89344654323137,174.44222775617573</t>
+        </is>
+      </c>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>-36.89276829530619,174.44193722578862</t>
+        </is>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-36.89200196799334,174.4418556598156</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -29079,28 +29079,28 @@
         <v>0.0367</v>
       </c>
       <c r="I2" t="n">
-        <v>2.233493175128986</v>
+        <v>2.232863204238443</v>
       </c>
       <c r="J2" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4618266156076609</v>
+        <v>0.4629702563713294</v>
       </c>
       <c r="M2" t="n">
-        <v>14.44128781263983</v>
+        <v>14.40562803782034</v>
       </c>
       <c r="N2" t="n">
-        <v>352.098377435797</v>
+        <v>351.1514019245897</v>
       </c>
       <c r="O2" t="n">
-        <v>18.76428462360867</v>
+        <v>18.73903417800901</v>
       </c>
       <c r="P2" t="n">
-        <v>377.1183811503062</v>
+        <v>377.1244700902479</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29157,28 +29157,28 @@
         <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.312694260067828</v>
+        <v>2.314105979298774</v>
       </c>
       <c r="J3" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4830167258336182</v>
+        <v>0.4845895613266032</v>
       </c>
       <c r="M3" t="n">
-        <v>14.18177769145895</v>
+        <v>14.152308690937</v>
       </c>
       <c r="N3" t="n">
-        <v>341.6066529834853</v>
+        <v>340.723645788677</v>
       </c>
       <c r="O3" t="n">
-        <v>18.48260406391603</v>
+        <v>18.4587010861728</v>
       </c>
       <c r="P3" t="n">
-        <v>369.1943715461808</v>
+        <v>369.1806000257868</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29235,28 +29235,28 @@
         <v>0.0316</v>
       </c>
       <c r="I4" t="n">
-        <v>2.160879709011124</v>
+        <v>2.162760966414853</v>
       </c>
       <c r="J4" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4387245904078688</v>
+        <v>0.4404047854588787</v>
       </c>
       <c r="M4" t="n">
-        <v>14.2060732298028</v>
+        <v>14.17775009175366</v>
       </c>
       <c r="N4" t="n">
-        <v>353.1275827161737</v>
+        <v>352.2211329818359</v>
       </c>
       <c r="O4" t="n">
-        <v>18.79168919273022</v>
+        <v>18.76755532779472</v>
       </c>
       <c r="P4" t="n">
-        <v>364.8644153832569</v>
+        <v>364.8459136469766</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29313,28 +29313,28 @@
         <v>0.0403</v>
       </c>
       <c r="I5" t="n">
-        <v>2.177931952320184</v>
+        <v>2.180294536866227</v>
       </c>
       <c r="J5" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4654218531799619</v>
+        <v>0.467152539875746</v>
       </c>
       <c r="M5" t="n">
-        <v>13.63663766013998</v>
+        <v>13.61615858856811</v>
       </c>
       <c r="N5" t="n">
-        <v>317.3619447860694</v>
+        <v>316.623631064147</v>
       </c>
       <c r="O5" t="n">
-        <v>17.81465533727974</v>
+        <v>17.793921182925</v>
       </c>
       <c r="P5" t="n">
-        <v>361.7091320688461</v>
+        <v>361.6857233590028</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29391,28 +29391,28 @@
         <v>0.0495</v>
       </c>
       <c r="I6" t="n">
-        <v>2.381825475787759</v>
+        <v>2.380985829406378</v>
       </c>
       <c r="J6" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4595151036442805</v>
+        <v>0.4605169518322391</v>
       </c>
       <c r="M6" t="n">
-        <v>15.15177293254701</v>
+        <v>15.11936670358679</v>
       </c>
       <c r="N6" t="n">
-        <v>382.881446430355</v>
+        <v>381.9695556166982</v>
       </c>
       <c r="O6" t="n">
-        <v>19.56735665414097</v>
+        <v>19.54404143509469</v>
       </c>
       <c r="P6" t="n">
-        <v>351.9985342751052</v>
+        <v>352.0069458807408</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29469,28 +29469,28 @@
         <v>0.0553</v>
       </c>
       <c r="I7" t="n">
-        <v>2.371963977360343</v>
+        <v>2.373871085842444</v>
       </c>
       <c r="J7" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4176060779936953</v>
+        <v>0.4191623968861838</v>
       </c>
       <c r="M7" t="n">
-        <v>16.66613125930524</v>
+        <v>16.63597059518244</v>
       </c>
       <c r="N7" t="n">
-        <v>452.9004277966865</v>
+        <v>451.8278977889007</v>
       </c>
       <c r="O7" t="n">
-        <v>21.28145737013061</v>
+        <v>21.2562437365801</v>
       </c>
       <c r="P7" t="n">
-        <v>346.6067431339869</v>
+        <v>346.5877346745242</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29547,28 +29547,28 @@
         <v>0.0418</v>
       </c>
       <c r="I8" t="n">
-        <v>2.35874070106801</v>
+        <v>2.364551011158016</v>
       </c>
       <c r="J8" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K8" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4298144591559078</v>
+        <v>0.4320309840385465</v>
       </c>
       <c r="M8" t="n">
-        <v>15.89833692260306</v>
+        <v>15.88845016869916</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1167107409574</v>
+        <v>418.4855598995924</v>
       </c>
       <c r="O8" t="n">
-        <v>20.47234013836614</v>
+        <v>20.45691960925673</v>
       </c>
       <c r="P8" t="n">
-        <v>345.0978581578826</v>
+        <v>345.0399645775466</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29625,28 +29625,28 @@
         <v>0.0401</v>
       </c>
       <c r="I9" t="n">
-        <v>2.173916412906788</v>
+        <v>2.182362919620199</v>
       </c>
       <c r="J9" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K9" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4174427461444924</v>
+        <v>0.4200218706084946</v>
       </c>
       <c r="M9" t="n">
-        <v>15.43154721100124</v>
+        <v>15.43373807216157</v>
       </c>
       <c r="N9" t="n">
-        <v>383.7890142837157</v>
+        <v>383.6982210327691</v>
       </c>
       <c r="O9" t="n">
-        <v>19.59053379272029</v>
+        <v>19.58821638212038</v>
       </c>
       <c r="P9" t="n">
-        <v>346.0570630278299</v>
+        <v>345.97463410029</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29703,28 +29703,28 @@
         <v>0.0366</v>
       </c>
       <c r="I10" t="n">
-        <v>2.218064211777269</v>
+        <v>2.226495909699308</v>
       </c>
       <c r="J10" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K10" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4092798319415583</v>
+        <v>0.4118289101830472</v>
       </c>
       <c r="M10" t="n">
-        <v>16.07194732801021</v>
+        <v>16.07566325681376</v>
       </c>
       <c r="N10" t="n">
-        <v>419.6076843805765</v>
+        <v>419.4329756626865</v>
       </c>
       <c r="O10" t="n">
-        <v>20.48432777468122</v>
+        <v>20.48006288229327</v>
       </c>
       <c r="P10" t="n">
-        <v>343.8858067720461</v>
+        <v>343.8040373948951</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29781,28 +29781,28 @@
         <v>0.0364</v>
       </c>
       <c r="I11" t="n">
-        <v>2.208485955126053</v>
+        <v>2.220026959585946</v>
       </c>
       <c r="J11" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K11" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4164519364697364</v>
+        <v>0.4192833802611029</v>
       </c>
       <c r="M11" t="n">
-        <v>15.71097312830734</v>
+        <v>15.73089379317846</v>
       </c>
       <c r="N11" t="n">
-        <v>398.4324619054715</v>
+        <v>398.9567192257401</v>
       </c>
       <c r="O11" t="n">
-        <v>19.96077307885322</v>
+        <v>19.97390095163536</v>
       </c>
       <c r="P11" t="n">
-        <v>345.1136747683229</v>
+        <v>344.9998555371384</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29859,28 +29859,28 @@
         <v>0.0317</v>
       </c>
       <c r="I12" t="n">
-        <v>2.121566011589634</v>
+        <v>2.1272794782011</v>
       </c>
       <c r="J12" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L12" t="n">
-        <v>0.387812578435628</v>
+        <v>0.3900753427622281</v>
       </c>
       <c r="M12" t="n">
-        <v>16.00294366607582</v>
+        <v>15.99082173184396</v>
       </c>
       <c r="N12" t="n">
-        <v>416.2242822543527</v>
+        <v>415.5271853871106</v>
       </c>
       <c r="O12" t="n">
-        <v>20.40157548461277</v>
+        <v>20.3844839372281</v>
       </c>
       <c r="P12" t="n">
-        <v>346.1424277957506</v>
+        <v>346.0859549351989</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29937,28 +29937,28 @@
         <v>0.0371</v>
       </c>
       <c r="I13" t="n">
-        <v>1.989341987482247</v>
+        <v>1.993089584711582</v>
       </c>
       <c r="J13" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K13" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3457470599630181</v>
+        <v>0.3477024837437269</v>
       </c>
       <c r="M13" t="n">
-        <v>16.48269462659083</v>
+        <v>16.45826760052659</v>
       </c>
       <c r="N13" t="n">
-        <v>452.2476435760088</v>
+        <v>451.1941317597483</v>
       </c>
       <c r="O13" t="n">
-        <v>21.26611491495353</v>
+        <v>21.24133074361746</v>
       </c>
       <c r="P13" t="n">
-        <v>345.237739822816</v>
+        <v>345.201574991348</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30015,28 +30015,28 @@
         <v>0.0272</v>
       </c>
       <c r="I14" t="n">
-        <v>1.707216627426503</v>
+        <v>1.697408793115247</v>
       </c>
       <c r="J14" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K14" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2475479849183266</v>
+        <v>0.2461538884436634</v>
       </c>
       <c r="M14" t="n">
-        <v>18.4336030871464</v>
+        <v>18.43748211927982</v>
       </c>
       <c r="N14" t="n">
-        <v>532.3182468546578</v>
+        <v>531.6837996735047</v>
       </c>
       <c r="O14" t="n">
-        <v>23.07202303341989</v>
+        <v>23.05826965913758</v>
       </c>
       <c r="P14" t="n">
-        <v>346.1167331292601</v>
+        <v>346.21193450085</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0183/nzd0183.xlsx
+++ b/data/nzd0183/nzd0183.xlsx
@@ -29073,10 +29073,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0292</v>
+        <v>0.0291</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0367</v>
+        <v>0.031</v>
       </c>
       <c r="I2" t="n">
         <v>2.232887106026333</v>
@@ -29151,10 +29151,10 @@
         <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0334</v>
+        <v>0.0306</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04</v>
+        <v>0.0365</v>
       </c>
       <c r="I3" t="n">
         <v>2.314086454896262</v>
@@ -29226,13 +29226,13 @@
         <v>0.8332779667616346</v>
       </c>
       <c r="F4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.03</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0285</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0316</v>
       </c>
       <c r="I4" t="n">
         <v>2.162787039538827</v>
@@ -29307,10 +29307,10 @@
         <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0341</v>
+        <v>0.0343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0403</v>
+        <v>0.0414</v>
       </c>
       <c r="I5" t="n">
         <v>2.180290983223257</v>
@@ -29382,13 +29382,13 @@
         <v>0.6665559335272819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0403</v>
+        <v>0.0348</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0495</v>
+        <v>0.0406</v>
       </c>
       <c r="I6" t="n">
         <v>2.380959809499246</v>
@@ -29460,13 +29460,13 @@
         <v>0.5831949169084177</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0446</v>
+        <v>0.0343</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0553</v>
+        <v>0.0362</v>
       </c>
       <c r="I7" t="n">
         <v>2.373871085842445</v>
@@ -29544,7 +29544,7 @@
         <v>0.0337</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0418</v>
+        <v>0.0369</v>
       </c>
       <c r="I8" t="n">
         <v>2.364536747654546</v>
@@ -29619,10 +29619,10 @@
         <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.034</v>
+        <v>0.0344</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0401</v>
+        <v>0.0386</v>
       </c>
       <c r="I9" t="n">
         <v>2.18235425031582</v>
@@ -29694,13 +29694,13 @@
         <v>0.3331118670552646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0296</v>
+        <v>0.0297</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0366</v>
+        <v>0.0314</v>
       </c>
       <c r="I10" t="n">
         <v>2.226488610433237</v>
@@ -29775,10 +29775,10 @@
         <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0291</v>
+        <v>0.025</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0364</v>
+        <v>0.0305</v>
       </c>
       <c r="I11" t="n">
         <v>2.220046166945013</v>
@@ -29850,13 +29850,13 @@
         <v>0.1663900946293006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0289</v>
+        <v>0.0248</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0317</v>
+        <v>0.0259</v>
       </c>
       <c r="I12" t="n">
         <v>2.127302709640332</v>
@@ -29928,13 +29928,13 @@
         <v>0.08302907801145572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0336</v>
+        <v>0.0287</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0371</v>
+        <v>0.0364</v>
       </c>
       <c r="I13" t="n">
         <v>1.99307498188442</v>
@@ -30009,10 +30009,10 @@
         <v>0.025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0237</v>
+        <v>0.0239</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0272</v>
+        <v>0.0281</v>
       </c>
       <c r="I14" t="n">
         <v>1.697408793115247</v>
